--- a/WebContent/WEB-INF/DDL/DDL.xlsx
+++ b/WebContent/WEB-INF/DDL/DDL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ForDevelop\pleiades2019\WorkSpace\shift\WebContent\WEB-INF\DDL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BE29476-5691-40C4-9516-6E28C0DAFC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5980918-DE43-4993-8051-2F3D32D3A8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{2430D201-D344-43F1-A5D8-803058B35788}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2430D201-D344-43F1-A5D8-803058B35788}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CREATE TABLE `news` ( `id` int NOT NULL AUTO_INCREMENT, `ymd` varchar(8) NOT NULL, `title` varchar(20) NOT NULL, `content` varchar(200) NOT NULL, PRIMARY KEY (`id`) );</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>newsテーブル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -67,6 +63,10 @@
   </si>
   <si>
     <t>CREATE TABLE `dm` ( `id` int NOT NULL AUTO_INCREMENT, `msg` varchar(200) DEFAULT NULL, `send_user` varchar(4) DEFAULT NULL, `receive_user` varchar(4) DEFAULT NULL, `msg_date` timestamp NULL DEFAULT NULL, PRIMARY KEY (`id`) ) ;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE TABLE `news` ( `id` int NOT NULL AUTO_INCREMENT, `ymd` varchar(8) NOT NULL, `category` varchar(1) NOT NULL, `title` varchar(20) NOT NULL, `content` varchar(200) NOT NULL, PRIMARY KEY (`id`) );</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -141,10 +141,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -470,108 +470,108 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -587,103 +587,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB77BCB-8849-41F6-8684-B1BDB7908F6A}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -706,96 +706,96 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -811,103 +811,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CABDD3-C354-4652-9FD4-13A09D19FEC7}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/WebContent/WEB-INF/DDL/DDL.xlsx
+++ b/WebContent/WEB-INF/DDL/DDL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ForDevelop\pleiades2019\WorkSpace\shift\WebContent\WEB-INF\DDL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5980918-DE43-4993-8051-2F3D32D3A8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D77ECF3-BD96-4CB6-B181-E20131E6C3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2430D201-D344-43F1-A5D8-803058B35788}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2430D201-D344-43F1-A5D8-803058B35788}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="355">
   <si>
     <t>CREATE TABLE `user` ( `id` varchar(4) NOT NULL, `name` varchar(20) NOT NULL, `name_kana` varchar(40) , `gender` varchar(1), `password` varchar(8), `address` varchar(100), `tel` varchar(15), `email` varchar(20), `note` varchar(400), `admin_flg` varchar(1), `del_flg` varchar(1), PRIMARY KEY (`id`));</t>
     <phoneticPr fontId="1"/>
@@ -67,6 +67,1596 @@
   </si>
   <si>
     <t>CREATE TABLE `news` ( `id` int NOT NULL AUTO_INCREMENT, `ymd` varchar(8) NOT NULL, `category` varchar(1) NOT NULL, `title` varchar(20) NOT NULL, `content` varchar(200) NOT NULL, PRIMARY KEY (`id`) );</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ1</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせはありません</t>
+  </si>
+  <si>
+    <t>お知らせはありません</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ2</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ3</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ4</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ5</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ6</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ7</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ8</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ9</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ10</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ11</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ12</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ13</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ14</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ15</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ16</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ17</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ18</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ19</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ20</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ21</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ22</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ23</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ24</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ25</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ26</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ27</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ28</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ29</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ30</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>管理者ユーザー</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カンリシャユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都</t>
+    <rPh sb="0" eb="3">
+      <t>トウキョウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般ユーザー</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イッパンユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田1</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤマダ1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y002</t>
+  </si>
+  <si>
+    <t>Y003</t>
+  </si>
+  <si>
+    <t>Y004</t>
+  </si>
+  <si>
+    <t>Y005</t>
+  </si>
+  <si>
+    <t>Y006</t>
+  </si>
+  <si>
+    <t>Y007</t>
+  </si>
+  <si>
+    <t>Y008</t>
+  </si>
+  <si>
+    <t>Y009</t>
+  </si>
+  <si>
+    <t>Y010</t>
+  </si>
+  <si>
+    <t>Y011</t>
+  </si>
+  <si>
+    <t>Y012</t>
+  </si>
+  <si>
+    <t>Y013</t>
+  </si>
+  <si>
+    <t>Y014</t>
+  </si>
+  <si>
+    <t>Y015</t>
+  </si>
+  <si>
+    <t>Y016</t>
+  </si>
+  <si>
+    <t>Y017</t>
+  </si>
+  <si>
+    <t>Y018</t>
+  </si>
+  <si>
+    <t>Y019</t>
+  </si>
+  <si>
+    <t>Y020</t>
+  </si>
+  <si>
+    <t>Y021</t>
+  </si>
+  <si>
+    <t>Y022</t>
+  </si>
+  <si>
+    <t>Y023</t>
+  </si>
+  <si>
+    <t>Y024</t>
+  </si>
+  <si>
+    <t>Y025</t>
+  </si>
+  <si>
+    <t>Y026</t>
+  </si>
+  <si>
+    <t>Y027</t>
+  </si>
+  <si>
+    <t>Y028</t>
+  </si>
+  <si>
+    <t>Y029</t>
+  </si>
+  <si>
+    <t>Y030</t>
+  </si>
+  <si>
+    <t>Y031</t>
+  </si>
+  <si>
+    <t>Y032</t>
+  </si>
+  <si>
+    <t>Y033</t>
+  </si>
+  <si>
+    <t>Y034</t>
+  </si>
+  <si>
+    <t>Y035</t>
+  </si>
+  <si>
+    <t>Y036</t>
+  </si>
+  <si>
+    <t>Y037</t>
+  </si>
+  <si>
+    <t>Y038</t>
+  </si>
+  <si>
+    <t>Y039</t>
+  </si>
+  <si>
+    <t>Y040</t>
+  </si>
+  <si>
+    <t>Y041</t>
+  </si>
+  <si>
+    <t>Y042</t>
+  </si>
+  <si>
+    <t>Y043</t>
+  </si>
+  <si>
+    <t>Y044</t>
+  </si>
+  <si>
+    <t>Y045</t>
+  </si>
+  <si>
+    <t>Y046</t>
+  </si>
+  <si>
+    <t>Y047</t>
+  </si>
+  <si>
+    <t>Y048</t>
+  </si>
+  <si>
+    <t>Y049</t>
+  </si>
+  <si>
+    <t>Y050</t>
+  </si>
+  <si>
+    <t>Y051</t>
+  </si>
+  <si>
+    <t>Y052</t>
+  </si>
+  <si>
+    <t>Y053</t>
+  </si>
+  <si>
+    <t>Y054</t>
+  </si>
+  <si>
+    <t>Y055</t>
+  </si>
+  <si>
+    <t>Y056</t>
+  </si>
+  <si>
+    <t>Y057</t>
+  </si>
+  <si>
+    <t>Y058</t>
+  </si>
+  <si>
+    <t>Y059</t>
+  </si>
+  <si>
+    <t>Y060</t>
+  </si>
+  <si>
+    <t>Y061</t>
+  </si>
+  <si>
+    <t>Y062</t>
+  </si>
+  <si>
+    <t>Y063</t>
+  </si>
+  <si>
+    <t>Y064</t>
+  </si>
+  <si>
+    <t>Y065</t>
+  </si>
+  <si>
+    <t>Y066</t>
+  </si>
+  <si>
+    <t>Y067</t>
+  </si>
+  <si>
+    <t>Y068</t>
+  </si>
+  <si>
+    <t>Y069</t>
+  </si>
+  <si>
+    <t>Y070</t>
+  </si>
+  <si>
+    <t>Y071</t>
+  </si>
+  <si>
+    <t>Y072</t>
+  </si>
+  <si>
+    <t>Y073</t>
+  </si>
+  <si>
+    <t>Y074</t>
+  </si>
+  <si>
+    <t>Y075</t>
+  </si>
+  <si>
+    <t>Y076</t>
+  </si>
+  <si>
+    <t>Y077</t>
+  </si>
+  <si>
+    <t>Y078</t>
+  </si>
+  <si>
+    <t>Y079</t>
+  </si>
+  <si>
+    <t>Y080</t>
+  </si>
+  <si>
+    <t>Y081</t>
+  </si>
+  <si>
+    <t>Y082</t>
+  </si>
+  <si>
+    <t>Y083</t>
+  </si>
+  <si>
+    <t>Y084</t>
+  </si>
+  <si>
+    <t>Y085</t>
+  </si>
+  <si>
+    <t>Y086</t>
+  </si>
+  <si>
+    <t>Y087</t>
+  </si>
+  <si>
+    <t>Y088</t>
+  </si>
+  <si>
+    <t>Y089</t>
+  </si>
+  <si>
+    <t>Y090</t>
+  </si>
+  <si>
+    <t>Y091</t>
+  </si>
+  <si>
+    <t>Y092</t>
+  </si>
+  <si>
+    <t>Y093</t>
+  </si>
+  <si>
+    <t>Y094</t>
+  </si>
+  <si>
+    <t>Y095</t>
+  </si>
+  <si>
+    <t>Y096</t>
+  </si>
+  <si>
+    <t>Y097</t>
+  </si>
+  <si>
+    <t>Y098</t>
+  </si>
+  <si>
+    <t>Y099</t>
+  </si>
+  <si>
+    <t>Y100</t>
+  </si>
+  <si>
+    <t>山田2</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田3</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田4</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田5</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田6</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田7</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田8</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田9</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田10</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田11</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田12</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田13</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田14</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田15</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田16</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田17</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田18</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田19</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田20</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田21</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田22</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田23</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田24</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田25</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田26</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田27</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田28</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田29</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田30</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田31</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田32</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田33</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田34</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田35</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田36</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田37</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田38</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田39</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田40</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田41</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田42</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田43</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田44</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田45</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田46</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田47</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田48</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田49</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田50</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田51</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田52</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田53</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田54</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田55</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田56</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田57</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田58</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田59</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田60</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田61</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田62</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田63</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田64</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田65</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田66</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田67</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田68</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田69</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田70</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田71</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田72</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田73</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田74</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田75</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田76</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田77</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田78</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田79</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田80</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田81</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田82</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田83</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田84</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田85</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田86</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田87</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田88</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田89</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田90</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田91</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田92</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田93</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田94</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田95</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田96</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田97</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田98</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田99</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田100</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤマダ2</t>
+  </si>
+  <si>
+    <t>ヤマダ3</t>
+  </si>
+  <si>
+    <t>ヤマダ4</t>
+  </si>
+  <si>
+    <t>ヤマダ5</t>
+  </si>
+  <si>
+    <t>ヤマダ6</t>
+  </si>
+  <si>
+    <t>ヤマダ7</t>
+  </si>
+  <si>
+    <t>ヤマダ8</t>
+  </si>
+  <si>
+    <t>ヤマダ9</t>
+  </si>
+  <si>
+    <t>ヤマダ10</t>
+  </si>
+  <si>
+    <t>ヤマダ11</t>
+  </si>
+  <si>
+    <t>ヤマダ12</t>
+  </si>
+  <si>
+    <t>ヤマダ13</t>
+  </si>
+  <si>
+    <t>ヤマダ14</t>
+  </si>
+  <si>
+    <t>ヤマダ15</t>
+  </si>
+  <si>
+    <t>ヤマダ16</t>
+  </si>
+  <si>
+    <t>ヤマダ17</t>
+  </si>
+  <si>
+    <t>ヤマダ18</t>
+  </si>
+  <si>
+    <t>ヤマダ19</t>
+  </si>
+  <si>
+    <t>ヤマダ20</t>
+  </si>
+  <si>
+    <t>ヤマダ21</t>
+  </si>
+  <si>
+    <t>ヤマダ22</t>
+  </si>
+  <si>
+    <t>ヤマダ23</t>
+  </si>
+  <si>
+    <t>ヤマダ24</t>
+  </si>
+  <si>
+    <t>ヤマダ25</t>
+  </si>
+  <si>
+    <t>ヤマダ26</t>
+  </si>
+  <si>
+    <t>ヤマダ27</t>
+  </si>
+  <si>
+    <t>ヤマダ28</t>
+  </si>
+  <si>
+    <t>ヤマダ29</t>
+  </si>
+  <si>
+    <t>ヤマダ30</t>
+  </si>
+  <si>
+    <t>ヤマダ31</t>
+  </si>
+  <si>
+    <t>ヤマダ32</t>
+  </si>
+  <si>
+    <t>ヤマダ33</t>
+  </si>
+  <si>
+    <t>ヤマダ34</t>
+  </si>
+  <si>
+    <t>ヤマダ35</t>
+  </si>
+  <si>
+    <t>ヤマダ36</t>
+  </si>
+  <si>
+    <t>ヤマダ37</t>
+  </si>
+  <si>
+    <t>ヤマダ38</t>
+  </si>
+  <si>
+    <t>ヤマダ39</t>
+  </si>
+  <si>
+    <t>ヤマダ40</t>
+  </si>
+  <si>
+    <t>ヤマダ41</t>
+  </si>
+  <si>
+    <t>ヤマダ42</t>
+  </si>
+  <si>
+    <t>ヤマダ43</t>
+  </si>
+  <si>
+    <t>ヤマダ44</t>
+  </si>
+  <si>
+    <t>ヤマダ45</t>
+  </si>
+  <si>
+    <t>ヤマダ46</t>
+  </si>
+  <si>
+    <t>ヤマダ47</t>
+  </si>
+  <si>
+    <t>ヤマダ48</t>
+  </si>
+  <si>
+    <t>ヤマダ49</t>
+  </si>
+  <si>
+    <t>ヤマダ50</t>
+  </si>
+  <si>
+    <t>ヤマダ51</t>
+  </si>
+  <si>
+    <t>ヤマダ52</t>
+  </si>
+  <si>
+    <t>ヤマダ53</t>
+  </si>
+  <si>
+    <t>ヤマダ54</t>
+  </si>
+  <si>
+    <t>ヤマダ55</t>
+  </si>
+  <si>
+    <t>ヤマダ56</t>
+  </si>
+  <si>
+    <t>ヤマダ57</t>
+  </si>
+  <si>
+    <t>ヤマダ58</t>
+  </si>
+  <si>
+    <t>ヤマダ59</t>
+  </si>
+  <si>
+    <t>ヤマダ60</t>
+  </si>
+  <si>
+    <t>ヤマダ61</t>
+  </si>
+  <si>
+    <t>ヤマダ62</t>
+  </si>
+  <si>
+    <t>ヤマダ63</t>
+  </si>
+  <si>
+    <t>ヤマダ64</t>
+  </si>
+  <si>
+    <t>ヤマダ65</t>
+  </si>
+  <si>
+    <t>ヤマダ66</t>
+  </si>
+  <si>
+    <t>ヤマダ67</t>
+  </si>
+  <si>
+    <t>ヤマダ68</t>
+  </si>
+  <si>
+    <t>ヤマダ69</t>
+  </si>
+  <si>
+    <t>ヤマダ70</t>
+  </si>
+  <si>
+    <t>ヤマダ71</t>
+  </si>
+  <si>
+    <t>ヤマダ72</t>
+  </si>
+  <si>
+    <t>ヤマダ73</t>
+  </si>
+  <si>
+    <t>ヤマダ74</t>
+  </si>
+  <si>
+    <t>ヤマダ75</t>
+  </si>
+  <si>
+    <t>ヤマダ76</t>
+  </si>
+  <si>
+    <t>ヤマダ77</t>
+  </si>
+  <si>
+    <t>ヤマダ78</t>
+  </si>
+  <si>
+    <t>ヤマダ79</t>
+  </si>
+  <si>
+    <t>ヤマダ80</t>
+  </si>
+  <si>
+    <t>ヤマダ81</t>
+  </si>
+  <si>
+    <t>ヤマダ82</t>
+  </si>
+  <si>
+    <t>ヤマダ83</t>
+  </si>
+  <si>
+    <t>ヤマダ84</t>
+  </si>
+  <si>
+    <t>ヤマダ85</t>
+  </si>
+  <si>
+    <t>ヤマダ86</t>
+  </si>
+  <si>
+    <t>ヤマダ87</t>
+  </si>
+  <si>
+    <t>ヤマダ88</t>
+  </si>
+  <si>
+    <t>ヤマダ89</t>
+  </si>
+  <si>
+    <t>ヤマダ90</t>
+  </si>
+  <si>
+    <t>ヤマダ91</t>
+  </si>
+  <si>
+    <t>ヤマダ92</t>
+  </si>
+  <si>
+    <t>ヤマダ93</t>
+  </si>
+  <si>
+    <t>ヤマダ94</t>
+  </si>
+  <si>
+    <t>ヤマダ95</t>
+  </si>
+  <si>
+    <t>ヤマダ96</t>
+  </si>
+  <si>
+    <t>ヤマダ97</t>
+  </si>
+  <si>
+    <t>ヤマダ98</t>
+  </si>
+  <si>
+    <t>ヤマダ99</t>
+  </si>
+  <si>
+    <t>ヤマダ100</t>
+  </si>
+  <si>
+    <t>メッセージメッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y050</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -105,7 +1695,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -128,13 +1718,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -146,6 +1856,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,15 +2207,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90610747-5C9E-4720-941D-ABF978A3831E}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:T103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:I8"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -484,7 +2233,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -496,8 +2245,33 @@
       <c r="I2" s="2"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="6">
+        <v>1</v>
+      </c>
+      <c r="P2" s="6">
+        <v>1234</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="6">
+        <v>1234567890</v>
+      </c>
+      <c r="S2" s="6">
+        <v>1</v>
+      </c>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -511,8 +2285,31 @@
       <c r="I3" s="3"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="4">
+        <v>2</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S3" s="4"/>
+      <c r="T3" s="9"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -524,8 +2321,31 @@
       <c r="I4" s="3"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S4" s="4"/>
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -537,8 +2357,31 @@
       <c r="I5" s="3"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="O5" s="4">
+        <v>2</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S5" s="4"/>
+      <c r="T5" s="9"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -550,8 +2393,33 @@
       <c r="I6" s="3"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -561,8 +2429,31 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="O7" s="4">
+        <v>2</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="9"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -572,6 +2463,2442 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
+      <c r="L8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="L9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="O9" s="4">
+        <v>2</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R9" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="L10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R10" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="L11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="O11" s="4">
+        <v>2</v>
+      </c>
+      <c r="P11" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="L12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S12" s="4"/>
+      <c r="T12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="L13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="O13" s="4">
+        <v>2</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R13" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S13" s="4"/>
+      <c r="T13" s="9"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="L14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="O14" s="4">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R14" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="9"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="L15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="O15" s="4">
+        <v>2</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R15" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S15" s="4"/>
+      <c r="T15" s="9"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="L16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="O16" s="4">
+        <v>1</v>
+      </c>
+      <c r="P16" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R16" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S16" s="4"/>
+      <c r="T16" s="9"/>
+    </row>
+    <row r="17" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="O17" s="4">
+        <v>2</v>
+      </c>
+      <c r="P17" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R17" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S17" s="4"/>
+      <c r="T17" s="9"/>
+    </row>
+    <row r="18" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="O18" s="4">
+        <v>1</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R18" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S18" s="4"/>
+      <c r="T18" s="9"/>
+    </row>
+    <row r="19" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="O19" s="4">
+        <v>2</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R19" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S19" s="4"/>
+      <c r="T19" s="9"/>
+    </row>
+    <row r="20" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="O20" s="4">
+        <v>1</v>
+      </c>
+      <c r="P20" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R20" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S20" s="4"/>
+      <c r="T20" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="O21" s="4">
+        <v>2</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R21" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S21" s="4"/>
+      <c r="T21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="O22" s="4">
+        <v>1</v>
+      </c>
+      <c r="P22" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R22" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S22" s="4"/>
+      <c r="T22" s="9"/>
+    </row>
+    <row r="23" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="O23" s="4">
+        <v>2</v>
+      </c>
+      <c r="P23" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R23" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S23" s="4"/>
+      <c r="T23" s="9"/>
+    </row>
+    <row r="24" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="O24" s="4">
+        <v>1</v>
+      </c>
+      <c r="P24" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R24" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S24" s="4"/>
+      <c r="T24" s="9"/>
+    </row>
+    <row r="25" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="O25" s="4">
+        <v>2</v>
+      </c>
+      <c r="P25" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R25" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S25" s="4"/>
+      <c r="T25" s="9"/>
+    </row>
+    <row r="26" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L26" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="O26" s="4">
+        <v>1</v>
+      </c>
+      <c r="P26" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R26" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S26" s="4"/>
+      <c r="T26" s="9"/>
+    </row>
+    <row r="27" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L27" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="O27" s="4">
+        <v>2</v>
+      </c>
+      <c r="P27" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R27" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S27" s="4"/>
+      <c r="T27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R28" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S28" s="4"/>
+      <c r="T28" s="9"/>
+    </row>
+    <row r="29" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L29" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="O29" s="4">
+        <v>2</v>
+      </c>
+      <c r="P29" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R29" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S29" s="4"/>
+      <c r="T29" s="9"/>
+    </row>
+    <row r="30" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L30" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="O30" s="4">
+        <v>1</v>
+      </c>
+      <c r="P30" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R30" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S30" s="4"/>
+      <c r="T30" s="9"/>
+    </row>
+    <row r="31" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="O31" s="4">
+        <v>2</v>
+      </c>
+      <c r="P31" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R31" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S31" s="4"/>
+      <c r="T31" s="9"/>
+    </row>
+    <row r="32" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L32" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="O32" s="4">
+        <v>1</v>
+      </c>
+      <c r="P32" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R32" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S32" s="4"/>
+      <c r="T32" s="9"/>
+    </row>
+    <row r="33" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L33" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="O33" s="4">
+        <v>2</v>
+      </c>
+      <c r="P33" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R33" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S33" s="4"/>
+      <c r="T33" s="9"/>
+    </row>
+    <row r="34" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L34" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="O34" s="4">
+        <v>1</v>
+      </c>
+      <c r="P34" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R34" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S34" s="4"/>
+      <c r="T34" s="9"/>
+    </row>
+    <row r="35" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L35" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="O35" s="4">
+        <v>2</v>
+      </c>
+      <c r="P35" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R35" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S35" s="4"/>
+      <c r="T35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L36" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="O36" s="4">
+        <v>1</v>
+      </c>
+      <c r="P36" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R36" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S36" s="4"/>
+      <c r="T36" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L37" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="O37" s="4">
+        <v>2</v>
+      </c>
+      <c r="P37" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R37" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S37" s="4"/>
+      <c r="T37" s="9"/>
+    </row>
+    <row r="38" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L38" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="O38" s="4">
+        <v>1</v>
+      </c>
+      <c r="P38" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R38" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S38" s="4"/>
+      <c r="T38" s="9"/>
+    </row>
+    <row r="39" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L39" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="O39" s="4">
+        <v>2</v>
+      </c>
+      <c r="P39" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R39" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S39" s="4"/>
+      <c r="T39" s="9"/>
+    </row>
+    <row r="40" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L40" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="O40" s="4">
+        <v>1</v>
+      </c>
+      <c r="P40" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R40" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S40" s="4"/>
+      <c r="T40" s="9"/>
+    </row>
+    <row r="41" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L41" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="O41" s="4">
+        <v>2</v>
+      </c>
+      <c r="P41" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R41" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S41" s="4"/>
+      <c r="T41" s="9"/>
+    </row>
+    <row r="42" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L42" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="O42" s="4">
+        <v>1</v>
+      </c>
+      <c r="P42" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R42" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S42" s="4"/>
+      <c r="T42" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L43" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="O43" s="4">
+        <v>2</v>
+      </c>
+      <c r="P43" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R43" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S43" s="4"/>
+      <c r="T43" s="9"/>
+    </row>
+    <row r="44" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L44" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="O44" s="4">
+        <v>1</v>
+      </c>
+      <c r="P44" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R44" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S44" s="4"/>
+      <c r="T44" s="9"/>
+    </row>
+    <row r="45" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L45" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="O45" s="4">
+        <v>2</v>
+      </c>
+      <c r="P45" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R45" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S45" s="4"/>
+      <c r="T45" s="9"/>
+    </row>
+    <row r="46" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L46" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="O46" s="4">
+        <v>1</v>
+      </c>
+      <c r="P46" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R46" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S46" s="4"/>
+      <c r="T46" s="9"/>
+    </row>
+    <row r="47" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L47" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="O47" s="4">
+        <v>2</v>
+      </c>
+      <c r="P47" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R47" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S47" s="4"/>
+      <c r="T47" s="9"/>
+    </row>
+    <row r="48" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L48" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="O48" s="4">
+        <v>1</v>
+      </c>
+      <c r="P48" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R48" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S48" s="4"/>
+      <c r="T48" s="9"/>
+    </row>
+    <row r="49" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L49" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="O49" s="4">
+        <v>2</v>
+      </c>
+      <c r="P49" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R49" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S49" s="4"/>
+      <c r="T49" s="9"/>
+    </row>
+    <row r="50" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L50" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="O50" s="4">
+        <v>1</v>
+      </c>
+      <c r="P50" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R50" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S50" s="4"/>
+      <c r="T50" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L51" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="O51" s="4">
+        <v>2</v>
+      </c>
+      <c r="P51" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R51" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S51" s="4"/>
+      <c r="T51" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L52" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="O52" s="4">
+        <v>1</v>
+      </c>
+      <c r="P52" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R52" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S52" s="4"/>
+      <c r="T52" s="9"/>
+    </row>
+    <row r="53" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L53" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="O53" s="4">
+        <v>2</v>
+      </c>
+      <c r="P53" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R53" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S53" s="4"/>
+      <c r="T53" s="9"/>
+    </row>
+    <row r="54" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L54" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="O54" s="4">
+        <v>1</v>
+      </c>
+      <c r="P54" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R54" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S54" s="4"/>
+      <c r="T54" s="9"/>
+    </row>
+    <row r="55" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L55" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="O55" s="4">
+        <v>2</v>
+      </c>
+      <c r="P55" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R55" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S55" s="4"/>
+      <c r="T55" s="9"/>
+    </row>
+    <row r="56" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L56" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="O56" s="4">
+        <v>1</v>
+      </c>
+      <c r="P56" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R56" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S56" s="4"/>
+      <c r="T56" s="9"/>
+    </row>
+    <row r="57" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L57" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="O57" s="4">
+        <v>2</v>
+      </c>
+      <c r="P57" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R57" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S57" s="4"/>
+      <c r="T57" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L58" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="O58" s="4">
+        <v>1</v>
+      </c>
+      <c r="P58" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R58" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S58" s="4"/>
+      <c r="T58" s="9"/>
+    </row>
+    <row r="59" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L59" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="O59" s="4">
+        <v>2</v>
+      </c>
+      <c r="P59" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R59" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S59" s="4"/>
+      <c r="T59" s="9"/>
+    </row>
+    <row r="60" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L60" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="O60" s="4">
+        <v>1</v>
+      </c>
+      <c r="P60" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R60" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S60" s="4"/>
+      <c r="T60" s="9"/>
+    </row>
+    <row r="61" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L61" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="O61" s="4">
+        <v>2</v>
+      </c>
+      <c r="P61" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R61" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S61" s="4"/>
+      <c r="T61" s="9"/>
+    </row>
+    <row r="62" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L62" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O62" s="4">
+        <v>1</v>
+      </c>
+      <c r="P62" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R62" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S62" s="4"/>
+      <c r="T62" s="9"/>
+    </row>
+    <row r="63" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L63" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="O63" s="4">
+        <v>2</v>
+      </c>
+      <c r="P63" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R63" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S63" s="4"/>
+      <c r="T63" s="9"/>
+    </row>
+    <row r="64" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L64" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="O64" s="4">
+        <v>1</v>
+      </c>
+      <c r="P64" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q64" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R64" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S64" s="4"/>
+      <c r="T64" s="9"/>
+    </row>
+    <row r="65" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L65" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="O65" s="4">
+        <v>2</v>
+      </c>
+      <c r="P65" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q65" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R65" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S65" s="4"/>
+      <c r="T65" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L66" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="O66" s="4">
+        <v>1</v>
+      </c>
+      <c r="P66" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q66" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R66" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S66" s="4"/>
+      <c r="T66" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L67" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="O67" s="4">
+        <v>2</v>
+      </c>
+      <c r="P67" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q67" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R67" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S67" s="4"/>
+      <c r="T67" s="9"/>
+    </row>
+    <row r="68" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L68" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="O68" s="4">
+        <v>1</v>
+      </c>
+      <c r="P68" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q68" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R68" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S68" s="4"/>
+      <c r="T68" s="9"/>
+    </row>
+    <row r="69" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L69" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="O69" s="4">
+        <v>2</v>
+      </c>
+      <c r="P69" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q69" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R69" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S69" s="4"/>
+      <c r="T69" s="9"/>
+    </row>
+    <row r="70" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L70" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="O70" s="4">
+        <v>1</v>
+      </c>
+      <c r="P70" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q70" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R70" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S70" s="4"/>
+      <c r="T70" s="9"/>
+    </row>
+    <row r="71" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L71" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="O71" s="4">
+        <v>2</v>
+      </c>
+      <c r="P71" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q71" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R71" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S71" s="4"/>
+      <c r="T71" s="9"/>
+    </row>
+    <row r="72" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L72" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="O72" s="4">
+        <v>1</v>
+      </c>
+      <c r="P72" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q72" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R72" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S72" s="4"/>
+      <c r="T72" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L73" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="O73" s="4">
+        <v>2</v>
+      </c>
+      <c r="P73" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q73" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R73" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S73" s="4"/>
+      <c r="T73" s="9"/>
+    </row>
+    <row r="74" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L74" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="O74" s="4">
+        <v>1</v>
+      </c>
+      <c r="P74" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q74" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R74" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S74" s="4"/>
+      <c r="T74" s="9"/>
+    </row>
+    <row r="75" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L75" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="O75" s="4">
+        <v>2</v>
+      </c>
+      <c r="P75" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q75" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R75" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S75" s="4"/>
+      <c r="T75" s="9"/>
+    </row>
+    <row r="76" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L76" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="O76" s="4">
+        <v>1</v>
+      </c>
+      <c r="P76" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q76" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R76" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S76" s="4"/>
+      <c r="T76" s="9"/>
+    </row>
+    <row r="77" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L77" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="O77" s="4">
+        <v>2</v>
+      </c>
+      <c r="P77" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q77" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R77" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S77" s="4"/>
+      <c r="T77" s="9"/>
+    </row>
+    <row r="78" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L78" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="O78" s="4">
+        <v>1</v>
+      </c>
+      <c r="P78" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q78" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R78" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S78" s="4"/>
+      <c r="T78" s="9"/>
+    </row>
+    <row r="79" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L79" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="O79" s="4">
+        <v>2</v>
+      </c>
+      <c r="P79" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q79" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R79" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S79" s="4"/>
+      <c r="T79" s="9"/>
+    </row>
+    <row r="80" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L80" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="O80" s="4">
+        <v>1</v>
+      </c>
+      <c r="P80" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q80" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R80" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S80" s="4"/>
+      <c r="T80" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L81" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M81" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="O81" s="4">
+        <v>2</v>
+      </c>
+      <c r="P81" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q81" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R81" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S81" s="4"/>
+      <c r="T81" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L82" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="O82" s="4">
+        <v>1</v>
+      </c>
+      <c r="P82" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q82" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R82" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S82" s="4"/>
+      <c r="T82" s="9"/>
+    </row>
+    <row r="83" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L83" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="O83" s="4">
+        <v>2</v>
+      </c>
+      <c r="P83" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q83" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R83" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S83" s="4"/>
+      <c r="T83" s="9"/>
+    </row>
+    <row r="84" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L84" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="O84" s="4">
+        <v>1</v>
+      </c>
+      <c r="P84" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q84" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R84" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S84" s="4"/>
+      <c r="T84" s="9"/>
+    </row>
+    <row r="85" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L85" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="M85" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="O85" s="4">
+        <v>2</v>
+      </c>
+      <c r="P85" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q85" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R85" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S85" s="4"/>
+      <c r="T85" s="9"/>
+    </row>
+    <row r="86" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L86" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="M86" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="O86" s="4">
+        <v>1</v>
+      </c>
+      <c r="P86" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q86" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R86" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S86" s="4"/>
+      <c r="T86" s="9"/>
+    </row>
+    <row r="87" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L87" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="O87" s="4">
+        <v>2</v>
+      </c>
+      <c r="P87" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q87" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R87" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S87" s="4"/>
+      <c r="T87" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L88" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="O88" s="4">
+        <v>1</v>
+      </c>
+      <c r="P88" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q88" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R88" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S88" s="4"/>
+      <c r="T88" s="9"/>
+    </row>
+    <row r="89" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L89" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="M89" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="O89" s="4">
+        <v>2</v>
+      </c>
+      <c r="P89" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q89" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R89" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S89" s="4"/>
+      <c r="T89" s="9"/>
+    </row>
+    <row r="90" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L90" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="O90" s="4">
+        <v>1</v>
+      </c>
+      <c r="P90" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q90" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R90" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S90" s="4"/>
+      <c r="T90" s="9"/>
+    </row>
+    <row r="91" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L91" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="M91" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="O91" s="4">
+        <v>2</v>
+      </c>
+      <c r="P91" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q91" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R91" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S91" s="4"/>
+      <c r="T91" s="9"/>
+    </row>
+    <row r="92" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L92" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="M92" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="N92" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="O92" s="4">
+        <v>1</v>
+      </c>
+      <c r="P92" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q92" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R92" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S92" s="4"/>
+      <c r="T92" s="9"/>
+    </row>
+    <row r="93" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L93" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="N93" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="O93" s="4">
+        <v>2</v>
+      </c>
+      <c r="P93" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q93" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R93" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S93" s="4"/>
+      <c r="T93" s="9"/>
+    </row>
+    <row r="94" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L94" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="M94" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="O94" s="4">
+        <v>1</v>
+      </c>
+      <c r="P94" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q94" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R94" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S94" s="4"/>
+      <c r="T94" s="9"/>
+    </row>
+    <row r="95" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L95" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="M95" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="N95" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="O95" s="4">
+        <v>2</v>
+      </c>
+      <c r="P95" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q95" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R95" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S95" s="4"/>
+      <c r="T95" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L96" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="M96" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="O96" s="4">
+        <v>1</v>
+      </c>
+      <c r="P96" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q96" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R96" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S96" s="4"/>
+      <c r="T96" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L97" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="M97" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="N97" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="O97" s="4">
+        <v>2</v>
+      </c>
+      <c r="P97" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q97" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R97" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S97" s="4"/>
+      <c r="T97" s="9"/>
+    </row>
+    <row r="98" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L98" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M98" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="O98" s="4">
+        <v>1</v>
+      </c>
+      <c r="P98" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q98" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R98" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S98" s="4"/>
+      <c r="T98" s="9"/>
+    </row>
+    <row r="99" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L99" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="M99" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="O99" s="4">
+        <v>2</v>
+      </c>
+      <c r="P99" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q99" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R99" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S99" s="4"/>
+      <c r="T99" s="9"/>
+    </row>
+    <row r="100" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L100" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="M100" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="O100" s="4">
+        <v>1</v>
+      </c>
+      <c r="P100" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q100" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R100" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S100" s="4"/>
+      <c r="T100" s="9"/>
+    </row>
+    <row r="101" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L101" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M101" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="N101" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="O101" s="4">
+        <v>2</v>
+      </c>
+      <c r="P101" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q101" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R101" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S101" s="4"/>
+      <c r="T101" s="9"/>
+    </row>
+    <row r="102" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L102" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="M102" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="N102" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="O102" s="4">
+        <v>1</v>
+      </c>
+      <c r="P102" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q102" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R102" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S102" s="4"/>
+      <c r="T102" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="12:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L103" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="M103" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="N103" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="O103" s="11">
+        <v>2</v>
+      </c>
+      <c r="P103" s="11">
+        <v>1234</v>
+      </c>
+      <c r="Q103" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="R103" s="11">
+        <v>1234567890</v>
+      </c>
+      <c r="S103" s="11"/>
+      <c r="T103" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -585,15 +4912,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB77BCB-8849-41F6-8684-B1BDB7908F6A}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="11" max="11" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -606,7 +4939,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -616,8 +4949,20 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6">
+        <v>20220401</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -629,8 +4974,20 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K3" s="8">
+        <v>2</v>
+      </c>
+      <c r="L3" s="4">
+        <v>20220402</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -640,8 +4997,20 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K4" s="8">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4">
+        <v>20220403</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -651,8 +5020,20 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K5" s="8">
+        <v>4</v>
+      </c>
+      <c r="L5" s="4">
+        <v>20220404</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -662,8 +5043,20 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K6" s="8">
+        <v>5</v>
+      </c>
+      <c r="L6" s="4">
+        <v>20220405</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -673,8 +5066,20 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K7" s="8">
+        <v>6</v>
+      </c>
+      <c r="L7" s="4">
+        <v>20220406</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -684,6 +5089,340 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
+      <c r="K8" s="8">
+        <v>7</v>
+      </c>
+      <c r="L8" s="4">
+        <v>20220407</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="K9" s="8">
+        <v>8</v>
+      </c>
+      <c r="L9" s="4">
+        <v>20220408</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="K10" s="8">
+        <v>9</v>
+      </c>
+      <c r="L10" s="4">
+        <v>20220409</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="K11" s="8">
+        <v>10</v>
+      </c>
+      <c r="L11" s="4">
+        <v>20220410</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="K12" s="8">
+        <v>11</v>
+      </c>
+      <c r="L12" s="4">
+        <v>20220411</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="K13" s="8">
+        <v>12</v>
+      </c>
+      <c r="L13" s="4">
+        <v>20220412</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="K14" s="8">
+        <v>13</v>
+      </c>
+      <c r="L14" s="4">
+        <v>20220413</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="K15" s="8">
+        <v>14</v>
+      </c>
+      <c r="L15" s="4">
+        <v>20220414</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="K16" s="8">
+        <v>15</v>
+      </c>
+      <c r="L16" s="4">
+        <v>20220415</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K17" s="8">
+        <v>16</v>
+      </c>
+      <c r="L17" s="4">
+        <v>20220416</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K18" s="8">
+        <v>17</v>
+      </c>
+      <c r="L18" s="4">
+        <v>20220417</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K19" s="8">
+        <v>18</v>
+      </c>
+      <c r="L19" s="4">
+        <v>20220418</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K20" s="8">
+        <v>19</v>
+      </c>
+      <c r="L20" s="4">
+        <v>20220419</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K21" s="8">
+        <v>20</v>
+      </c>
+      <c r="L21" s="4">
+        <v>20220420</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K22" s="8">
+        <v>21</v>
+      </c>
+      <c r="L22" s="4">
+        <v>20220421</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K23" s="8">
+        <v>22</v>
+      </c>
+      <c r="L23" s="4">
+        <v>20220422</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K24" s="8">
+        <v>23</v>
+      </c>
+      <c r="L24" s="4">
+        <v>20220423</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K25" s="8">
+        <v>24</v>
+      </c>
+      <c r="L25" s="4">
+        <v>20220424</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K26" s="8">
+        <v>25</v>
+      </c>
+      <c r="L26" s="4">
+        <v>20220425</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K27" s="8">
+        <v>26</v>
+      </c>
+      <c r="L27" s="4">
+        <v>20220426</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K28" s="8">
+        <v>27</v>
+      </c>
+      <c r="L28" s="4">
+        <v>20220427</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K29" s="8">
+        <v>28</v>
+      </c>
+      <c r="L29" s="4">
+        <v>20220428</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K30" s="8">
+        <v>29</v>
+      </c>
+      <c r="L30" s="4">
+        <v>20220429</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="11:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K31" s="10">
+        <v>30</v>
+      </c>
+      <c r="L31" s="11">
+        <v>20220430</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -697,15 +5436,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA01D8D-1809-4014-8991-A5BD04452E2F}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="12" max="12" width="9.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -718,7 +5460,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -729,7 +5471,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -741,8 +5483,18 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="L3" s="5">
+        <v>20220410</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -752,8 +5504,18 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="L4" s="8">
+        <v>20220411</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -763,8 +5525,18 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="L5" s="8">
+        <v>20220412</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="9"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -774,8 +5546,18 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="L6" s="8">
+        <v>20220413</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="9"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -785,8 +5567,18 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="L7" s="8">
+        <v>20220414</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -796,6 +5588,360 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
+      <c r="L8" s="8">
+        <v>20220415</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="L9" s="8">
+        <v>20220416</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="L10" s="8">
+        <v>20220417</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="L11" s="8">
+        <v>20220418</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="L12" s="8">
+        <v>20220419</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="L13" s="8">
+        <v>20220420</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="L14" s="8">
+        <v>20220421</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="L15" s="8">
+        <v>20220422</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="L16" s="8">
+        <v>20220423</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L17" s="8">
+        <v>20220424</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L18" s="8">
+        <v>20220425</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L19" s="8">
+        <v>20220501</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L20" s="8">
+        <v>20220502</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L21" s="8">
+        <v>20220503</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L22" s="8">
+        <v>20220504</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L23" s="8">
+        <v>20220505</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="9"/>
+    </row>
+    <row r="24" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L24" s="8">
+        <v>20220506</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="9"/>
+    </row>
+    <row r="25" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L25" s="8">
+        <v>20220507</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="9"/>
+    </row>
+    <row r="26" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L26" s="8">
+        <v>20220508</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="9"/>
+    </row>
+    <row r="27" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L27" s="8">
+        <v>20220509</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="28" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L28" s="8">
+        <v>20220510</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L29" s="8">
+        <v>20220511</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L30" s="8">
+        <v>20220512</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L31" s="8">
+        <v>20220513</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="32" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L32" s="8">
+        <v>20220514</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="12:17" x14ac:dyDescent="0.45">
+      <c r="L33" s="8">
+        <v>20220515</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="12:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L34" s="10">
+        <v>20220516</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="12" t="s">
+        <v>349</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -809,15 +5955,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CABDD3-C354-4652-9FD4-13A09D19FEC7}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="12" max="12" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -830,7 +5982,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -841,7 +5993,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -853,8 +6005,23 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="13">
+        <v>44674.59375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -864,8 +6031,23 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="L4" s="8">
+        <v>2</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P4" s="14">
+        <v>44674.594444444447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -875,8 +6057,23 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="L5" s="8">
+        <v>3</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="14">
+        <v>44674.595138888886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -886,8 +6083,23 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="L6" s="8">
+        <v>4</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P6" s="14">
+        <v>44674.595833333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -897,8 +6109,23 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="L7" s="8">
+        <v>5</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="14">
+        <v>44674.59652777778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -908,6 +6135,1619 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
+      <c r="L8" s="8">
+        <v>6</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P8" s="14">
+        <v>44674.597222222219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L9" s="8">
+        <v>7</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" s="14">
+        <v>44674.597916666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L10" s="8">
+        <v>8</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P10" s="14">
+        <v>44674.598611111112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L11" s="8">
+        <v>9</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="14">
+        <v>44674.599305555559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L12" s="8">
+        <v>10</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P12" s="14">
+        <v>44674.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L13" s="8">
+        <v>11</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="14">
+        <v>44674.600694444445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L14" s="8">
+        <v>12</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P14" s="14">
+        <v>44674.601388888892</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L15" s="8">
+        <v>13</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="14">
+        <v>44674.602083333331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L16" s="8">
+        <v>14</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P16" s="14">
+        <v>44674.602777777778</v>
+      </c>
+    </row>
+    <row r="17" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L17" s="8">
+        <v>15</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P17" s="14">
+        <v>44674.603472222225</v>
+      </c>
+    </row>
+    <row r="18" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L18" s="8">
+        <v>16</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" s="14">
+        <v>44674.604166666664</v>
+      </c>
+    </row>
+    <row r="19" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L19" s="8">
+        <v>17</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="P19" s="14">
+        <v>44675.4375</v>
+      </c>
+    </row>
+    <row r="20" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L20" s="8">
+        <v>18</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P20" s="14">
+        <v>44676.4375</v>
+      </c>
+    </row>
+    <row r="21" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L21" s="8">
+        <v>19</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="P21" s="14">
+        <v>44677.4375</v>
+      </c>
+    </row>
+    <row r="22" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L22" s="8">
+        <v>20</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P22" s="14">
+        <v>44677.438194444447</v>
+      </c>
+    </row>
+    <row r="23" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L23" s="8">
+        <v>21</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="P23" s="14">
+        <v>44677.438888888886</v>
+      </c>
+    </row>
+    <row r="24" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L24" s="8">
+        <v>22</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P24" s="14">
+        <v>44677.439583333333</v>
+      </c>
+    </row>
+    <row r="25" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L25" s="8">
+        <v>23</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="P25" s="14">
+        <v>44677.44027777778</v>
+      </c>
+    </row>
+    <row r="26" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L26" s="8">
+        <v>24</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P26" s="14">
+        <v>44677.440972222219</v>
+      </c>
+    </row>
+    <row r="27" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L27" s="8">
+        <v>25</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="P27" s="14">
+        <v>44677.441666666666</v>
+      </c>
+    </row>
+    <row r="28" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L28" s="8">
+        <v>26</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P28" s="14">
+        <v>44677.442361111112</v>
+      </c>
+    </row>
+    <row r="29" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L29" s="8">
+        <v>27</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="P29" s="14">
+        <v>44677.443055555559</v>
+      </c>
+    </row>
+    <row r="30" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L30" s="8">
+        <v>28</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P30" s="14">
+        <v>44677.443749999999</v>
+      </c>
+    </row>
+    <row r="31" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L31" s="8">
+        <v>29</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="P31" s="14">
+        <v>44677.444444444445</v>
+      </c>
+    </row>
+    <row r="32" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L32" s="8">
+        <v>30</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P32" s="14">
+        <v>44677.445138888892</v>
+      </c>
+    </row>
+    <row r="33" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L33" s="8">
+        <v>31</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P33" s="14">
+        <v>44678.445138888892</v>
+      </c>
+    </row>
+    <row r="34" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L34" s="8">
+        <v>32</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P34" s="14">
+        <v>44679.445833333331</v>
+      </c>
+    </row>
+    <row r="35" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L35" s="8">
+        <v>33</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="14">
+        <v>44680.446527662039</v>
+      </c>
+    </row>
+    <row r="36" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L36" s="8">
+        <v>34</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P36" s="14">
+        <v>44681.447222048613</v>
+      </c>
+    </row>
+    <row r="37" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L37" s="8">
+        <v>35</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P37" s="14">
+        <v>44682.447916435187</v>
+      </c>
+    </row>
+    <row r="38" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L38" s="8">
+        <v>36</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P38" s="14">
+        <v>44683.448610821761</v>
+      </c>
+    </row>
+    <row r="39" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L39" s="8">
+        <v>37</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P39" s="14">
+        <v>44684.449305208334</v>
+      </c>
+    </row>
+    <row r="40" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L40" s="8">
+        <v>38</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P40" s="14">
+        <v>44685.449999594908</v>
+      </c>
+    </row>
+    <row r="41" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L41" s="8">
+        <v>39</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P41" s="14">
+        <v>44686.450693981482</v>
+      </c>
+    </row>
+    <row r="42" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L42" s="8">
+        <v>40</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P42" s="14">
+        <v>44687.451388368056</v>
+      </c>
+    </row>
+    <row r="43" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L43" s="8">
+        <v>41</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P43" s="14">
+        <v>44688.452082754629</v>
+      </c>
+    </row>
+    <row r="44" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L44" s="8">
+        <v>42</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P44" s="14">
+        <v>44688.452777777777</v>
+      </c>
+    </row>
+    <row r="45" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L45" s="8">
+        <v>43</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P45" s="14">
+        <v>44688.453472743058</v>
+      </c>
+    </row>
+    <row r="46" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L46" s="8">
+        <v>44</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="P46" s="14">
+        <v>44688.454167766206</v>
+      </c>
+    </row>
+    <row r="47" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L47" s="8">
+        <v>45</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P47" s="14">
+        <v>44688.454862789353</v>
+      </c>
+    </row>
+    <row r="48" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L48" s="8">
+        <v>46</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="P48" s="14">
+        <v>44688.4555578125</v>
+      </c>
+    </row>
+    <row r="49" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L49" s="8">
+        <v>47</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P49" s="14">
+        <v>44688.456252835647</v>
+      </c>
+    </row>
+    <row r="50" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L50" s="8">
+        <v>48</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="P50" s="14">
+        <v>44688.456947858795</v>
+      </c>
+    </row>
+    <row r="51" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L51" s="8">
+        <v>49</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P51" s="14">
+        <v>44688.457642881942</v>
+      </c>
+    </row>
+    <row r="52" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L52" s="8">
+        <v>50</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="P52" s="14">
+        <v>44688.458337905089</v>
+      </c>
+    </row>
+    <row r="53" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L53" s="8">
+        <v>51</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P53" s="14">
+        <v>44688.459032928244</v>
+      </c>
+    </row>
+    <row r="54" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L54" s="8">
+        <v>52</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="P54" s="14">
+        <v>44688.459727951391</v>
+      </c>
+    </row>
+    <row r="55" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L55" s="8">
+        <v>53</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P55" s="14">
+        <v>44688.460422974538</v>
+      </c>
+    </row>
+    <row r="56" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L56" s="8">
+        <v>54</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="P56" s="14">
+        <v>44688.461117997686</v>
+      </c>
+    </row>
+    <row r="57" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L57" s="8">
+        <v>55</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P57" s="14">
+        <v>44688.461813020833</v>
+      </c>
+    </row>
+    <row r="58" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L58" s="8">
+        <v>56</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="P58" s="14">
+        <v>44688.46250804398</v>
+      </c>
+    </row>
+    <row r="59" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L59" s="8">
+        <v>57</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P59" s="14">
+        <v>44688.463203067127</v>
+      </c>
+    </row>
+    <row r="60" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L60" s="8">
+        <v>58</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="P60" s="14">
+        <v>44688.463898090275</v>
+      </c>
+    </row>
+    <row r="61" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L61" s="8">
+        <v>59</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P61" s="14">
+        <v>44688.464593113429</v>
+      </c>
+    </row>
+    <row r="62" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L62" s="8">
+        <v>60</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="P62" s="14">
+        <v>44688.465288136576</v>
+      </c>
+    </row>
+    <row r="63" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L63" s="8">
+        <v>61</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P63" s="14">
+        <v>44688.465983159724</v>
+      </c>
+    </row>
+    <row r="64" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L64" s="8">
+        <v>62</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O64" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="P64" s="14">
+        <v>44688.466678182871</v>
+      </c>
+    </row>
+    <row r="65" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L65" s="8">
+        <v>63</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P65" s="14">
+        <v>44688.467373206018</v>
+      </c>
+    </row>
+    <row r="66" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L66" s="8">
+        <v>64</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="P66" s="14">
+        <v>44688.468068229166</v>
+      </c>
+    </row>
+    <row r="67" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L67" s="8">
+        <v>65</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="P67" s="14">
+        <v>44688.468763252313</v>
+      </c>
+    </row>
+    <row r="68" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L68" s="8">
+        <v>66</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="P68" s="14">
+        <v>44674.59375</v>
+      </c>
+    </row>
+    <row r="69" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L69" s="8">
+        <v>67</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="P69" s="14">
+        <v>44674.594444444447</v>
+      </c>
+    </row>
+    <row r="70" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L70" s="8">
+        <v>68</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="P70" s="14">
+        <v>44674.595138888886</v>
+      </c>
+    </row>
+    <row r="71" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L71" s="8">
+        <v>69</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="P71" s="14">
+        <v>44674.595833333333</v>
+      </c>
+    </row>
+    <row r="72" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L72" s="8">
+        <v>70</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O72" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="P72" s="14">
+        <v>44674.59652777778</v>
+      </c>
+    </row>
+    <row r="73" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L73" s="8">
+        <v>71</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="P73" s="14">
+        <v>44674.597222222219</v>
+      </c>
+    </row>
+    <row r="74" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L74" s="8">
+        <v>72</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="P74" s="14">
+        <v>44674.597916666666</v>
+      </c>
+    </row>
+    <row r="75" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L75" s="8">
+        <v>73</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="O75" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="P75" s="14">
+        <v>44674.598611111112</v>
+      </c>
+    </row>
+    <row r="76" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L76" s="8">
+        <v>74</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O76" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="P76" s="14">
+        <v>44674.599305555559</v>
+      </c>
+    </row>
+    <row r="77" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L77" s="8">
+        <v>75</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="P77" s="14">
+        <v>44674.6</v>
+      </c>
+    </row>
+    <row r="78" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L78" s="8">
+        <v>76</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O78" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="P78" s="14">
+        <v>44674.600694444445</v>
+      </c>
+    </row>
+    <row r="79" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L79" s="8">
+        <v>77</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="O79" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="P79" s="14">
+        <v>44674.601388888892</v>
+      </c>
+    </row>
+    <row r="80" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L80" s="8">
+        <v>78</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O80" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="P80" s="14">
+        <v>44674.602083333331</v>
+      </c>
+    </row>
+    <row r="81" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L81" s="8">
+        <v>79</v>
+      </c>
+      <c r="M81" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="P81" s="14">
+        <v>44674.602777777778</v>
+      </c>
+    </row>
+    <row r="82" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L82" s="8">
+        <v>80</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O82" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="P82" s="14">
+        <v>44674.603472222225</v>
+      </c>
+    </row>
+    <row r="83" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L83" s="8">
+        <v>81</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="O83" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="P83" s="14">
+        <v>44674.604166666664</v>
+      </c>
+    </row>
+    <row r="84" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L84" s="8">
+        <v>82</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O84" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="P84" s="14">
+        <v>44675.4375</v>
+      </c>
+    </row>
+    <row r="85" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L85" s="8">
+        <v>83</v>
+      </c>
+      <c r="M85" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="O85" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="P85" s="14">
+        <v>44676.4375</v>
+      </c>
+    </row>
+    <row r="86" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L86" s="8">
+        <v>84</v>
+      </c>
+      <c r="M86" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O86" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="P86" s="14">
+        <v>44677.4375</v>
+      </c>
+    </row>
+    <row r="87" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L87" s="8">
+        <v>85</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="O87" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="P87" s="14">
+        <v>44677.438194444447</v>
+      </c>
+    </row>
+    <row r="88" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L88" s="8">
+        <v>86</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="O88" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="P88" s="14">
+        <v>44677.438888888886</v>
+      </c>
+    </row>
+    <row r="89" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L89" s="8">
+        <v>87</v>
+      </c>
+      <c r="M89" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="O89" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="P89" s="14">
+        <v>44677.439583333333</v>
+      </c>
+    </row>
+    <row r="90" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L90" s="8">
+        <v>88</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="O90" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="P90" s="14">
+        <v>44674.59375</v>
+      </c>
+    </row>
+    <row r="91" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L91" s="8">
+        <v>89</v>
+      </c>
+      <c r="M91" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="O91" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="P91" s="14">
+        <v>44674.594444444447</v>
+      </c>
+    </row>
+    <row r="92" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L92" s="8">
+        <v>90</v>
+      </c>
+      <c r="M92" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N92" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="O92" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="P92" s="14">
+        <v>44674.595138888886</v>
+      </c>
+    </row>
+    <row r="93" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L93" s="8">
+        <v>91</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N93" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="O93" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="P93" s="14">
+        <v>44674.595833333333</v>
+      </c>
+    </row>
+    <row r="94" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L94" s="8">
+        <v>92</v>
+      </c>
+      <c r="M94" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="O94" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="P94" s="14">
+        <v>44674.59652777778</v>
+      </c>
+    </row>
+    <row r="95" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L95" s="8">
+        <v>93</v>
+      </c>
+      <c r="M95" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N95" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="O95" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="P95" s="14">
+        <v>44674.597222222219</v>
+      </c>
+    </row>
+    <row r="96" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L96" s="8">
+        <v>94</v>
+      </c>
+      <c r="M96" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="O96" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="P96" s="14">
+        <v>44674.597916666666</v>
+      </c>
+    </row>
+    <row r="97" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L97" s="8">
+        <v>95</v>
+      </c>
+      <c r="M97" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N97" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="O97" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="P97" s="14">
+        <v>44674.598611111112</v>
+      </c>
+    </row>
+    <row r="98" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L98" s="8">
+        <v>96</v>
+      </c>
+      <c r="M98" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="O98" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="P98" s="14">
+        <v>44674.599305555559</v>
+      </c>
+    </row>
+    <row r="99" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L99" s="8">
+        <v>97</v>
+      </c>
+      <c r="M99" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="O99" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="P99" s="14">
+        <v>44674.6</v>
+      </c>
+    </row>
+    <row r="100" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L100" s="8">
+        <v>98</v>
+      </c>
+      <c r="M100" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="O100" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="P100" s="14">
+        <v>44674.600694444445</v>
+      </c>
+    </row>
+    <row r="101" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L101" s="8">
+        <v>99</v>
+      </c>
+      <c r="M101" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N101" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="O101" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="P101" s="14">
+        <v>44674.601388888892</v>
+      </c>
+    </row>
+    <row r="102" spans="12:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L102" s="10">
+        <v>100</v>
+      </c>
+      <c r="M102" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="N102" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="O102" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="P102" s="15">
+        <v>44674.602083333331</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/WebContent/WEB-INF/DDL/DDL.xlsx
+++ b/WebContent/WEB-INF/DDL/DDL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ForDevelop\pleiades2019\WorkSpace\shift\WebContent\WEB-INF\DDL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f38e1dece3938c1/ドキュメント/Webアプリ　保存スペース/shift管理アプリ/Carender_git/WebContent/WEB-INF/DDL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D77ECF3-BD96-4CB6-B181-E20131E6C3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{4D77ECF3-BD96-4CB6-B181-E20131E6C3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBC61220-04FA-4787-A0FF-906D2C6D747D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2430D201-D344-43F1-A5D8-803058B35788}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2430D201-D344-43F1-A5D8-803058B35788}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -1851,12 +1851,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1892,6 +1886,12 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2209,7 +2209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90610747-5C9E-4720-941D-ABF978A3831E}">
   <dimension ref="A1:T103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
@@ -2219,2686 +2219,2686 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="6">
-        <v>1</v>
-      </c>
-      <c r="P2" s="6">
-        <v>1234</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" s="6">
-        <v>1234567890</v>
-      </c>
-      <c r="S2" s="6">
-        <v>1</v>
-      </c>
-      <c r="T2" s="7"/>
+      <c r="O2" s="4">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1234</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="S2" s="4">
+        <v>1</v>
+      </c>
+      <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="2">
         <v>2</v>
       </c>
-      <c r="P3" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="9"/>
+      <c r="P3" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="7"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="4">
-        <v>1</v>
-      </c>
-      <c r="P4" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="9"/>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" s="7"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="2">
         <v>2</v>
       </c>
-      <c r="P5" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="9"/>
+      <c r="P5" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="7"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="O6" s="4">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R6" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="9">
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="L7" s="8" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="L7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="2">
         <v>2</v>
       </c>
-      <c r="P7" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R7" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="9"/>
+      <c r="P7" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="7"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="L8" s="8" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="L8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="O8" s="4">
-        <v>1</v>
-      </c>
-      <c r="P8" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R8" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="9"/>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="7"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="2">
         <v>2</v>
       </c>
-      <c r="P9" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R9" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="9"/>
+      <c r="P9" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="O10" s="4">
-        <v>1</v>
-      </c>
-      <c r="P10" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R10" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S10" s="4"/>
-      <c r="T10" s="9"/>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="7"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="2">
         <v>2</v>
       </c>
-      <c r="P11" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R11" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="9"/>
+      <c r="P11" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="7"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="O12" s="4">
-        <v>1</v>
-      </c>
-      <c r="P12" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R12" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S12" s="4"/>
-      <c r="T12" s="9">
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="2">
         <v>2</v>
       </c>
-      <c r="P13" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R13" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S13" s="4"/>
-      <c r="T13" s="9"/>
+      <c r="P13" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R13" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S13" s="2"/>
+      <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="O14" s="4">
-        <v>1</v>
-      </c>
-      <c r="P14" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R14" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="9"/>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="7"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="2">
         <v>2</v>
       </c>
-      <c r="P15" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R15" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S15" s="4"/>
-      <c r="T15" s="9"/>
+      <c r="P15" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R15" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="7"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="O16" s="4">
-        <v>1</v>
-      </c>
-      <c r="P16" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R16" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S16" s="4"/>
-      <c r="T16" s="9"/>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R16" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="7"/>
     </row>
     <row r="17" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="N17" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="2">
         <v>2</v>
       </c>
-      <c r="P17" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R17" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S17" s="4"/>
-      <c r="T17" s="9"/>
+      <c r="P17" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R17" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S17" s="2"/>
+      <c r="T17" s="7"/>
     </row>
     <row r="18" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="O18" s="4">
-        <v>1</v>
-      </c>
-      <c r="P18" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R18" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S18" s="4"/>
-      <c r="T18" s="9"/>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R18" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S18" s="2"/>
+      <c r="T18" s="7"/>
     </row>
     <row r="19" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="N19" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="2">
         <v>2</v>
       </c>
-      <c r="P19" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R19" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S19" s="4"/>
-      <c r="T19" s="9"/>
+      <c r="P19" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R19" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S19" s="2"/>
+      <c r="T19" s="7"/>
     </row>
     <row r="20" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L20" s="8" t="s">
+      <c r="L20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="N20" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="O20" s="4">
-        <v>1</v>
-      </c>
-      <c r="P20" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R20" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S20" s="4"/>
-      <c r="T20" s="9">
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="T20" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L21" s="8" t="s">
+      <c r="L21" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="N21" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="2">
         <v>2</v>
       </c>
-      <c r="P21" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R21" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S21" s="4"/>
-      <c r="T21" s="9">
+      <c r="P21" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R21" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="T21" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L22" s="8" t="s">
+      <c r="L22" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="N22" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="O22" s="4">
-        <v>1</v>
-      </c>
-      <c r="P22" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R22" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S22" s="4"/>
-      <c r="T22" s="9"/>
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R22" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="7"/>
     </row>
     <row r="23" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L23" s="8" t="s">
+      <c r="L23" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N23" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="2">
         <v>2</v>
       </c>
-      <c r="P23" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R23" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S23" s="4"/>
-      <c r="T23" s="9"/>
+      <c r="P23" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R23" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" s="7"/>
     </row>
     <row r="24" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L24" s="8" t="s">
+      <c r="L24" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="N24" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="O24" s="4">
-        <v>1</v>
-      </c>
-      <c r="P24" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R24" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S24" s="4"/>
-      <c r="T24" s="9"/>
+      <c r="O24" s="2">
+        <v>1</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R24" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S24" s="2"/>
+      <c r="T24" s="7"/>
     </row>
     <row r="25" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L25" s="8" t="s">
+      <c r="L25" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="N25" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="2">
         <v>2</v>
       </c>
-      <c r="P25" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R25" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S25" s="4"/>
-      <c r="T25" s="9"/>
+      <c r="P25" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R25" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="7"/>
     </row>
     <row r="26" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L26" s="8" t="s">
+      <c r="L26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="N26" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="O26" s="4">
-        <v>1</v>
-      </c>
-      <c r="P26" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R26" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S26" s="4"/>
-      <c r="T26" s="9"/>
+      <c r="O26" s="2">
+        <v>1</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R26" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S26" s="2"/>
+      <c r="T26" s="7"/>
     </row>
     <row r="27" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L27" s="8" t="s">
+      <c r="L27" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="M27" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="N27" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="2">
         <v>2</v>
       </c>
-      <c r="P27" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R27" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S27" s="4"/>
-      <c r="T27" s="9">
+      <c r="P27" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R27" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S27" s="2"/>
+      <c r="T27" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L28" s="8" t="s">
+      <c r="L28" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="M28" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="N28" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="O28" s="4">
-        <v>1</v>
-      </c>
-      <c r="P28" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R28" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S28" s="4"/>
-      <c r="T28" s="9"/>
+      <c r="O28" s="2">
+        <v>1</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R28" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S28" s="2"/>
+      <c r="T28" s="7"/>
     </row>
     <row r="29" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L29" s="8" t="s">
+      <c r="L29" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="N29" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="2">
         <v>2</v>
       </c>
-      <c r="P29" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R29" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S29" s="4"/>
-      <c r="T29" s="9"/>
+      <c r="P29" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R29" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S29" s="2"/>
+      <c r="T29" s="7"/>
     </row>
     <row r="30" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L30" s="8" t="s">
+      <c r="L30" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="M30" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="N30" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="O30" s="4">
-        <v>1</v>
-      </c>
-      <c r="P30" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R30" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S30" s="4"/>
-      <c r="T30" s="9"/>
+      <c r="O30" s="2">
+        <v>1</v>
+      </c>
+      <c r="P30" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R30" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S30" s="2"/>
+      <c r="T30" s="7"/>
     </row>
     <row r="31" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L31" s="8" t="s">
+      <c r="L31" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="M31" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="N31" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="2">
         <v>2</v>
       </c>
-      <c r="P31" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R31" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S31" s="4"/>
-      <c r="T31" s="9"/>
+      <c r="P31" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R31" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S31" s="2"/>
+      <c r="T31" s="7"/>
     </row>
     <row r="32" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L32" s="8" t="s">
+      <c r="L32" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="M32" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="N32" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="O32" s="4">
-        <v>1</v>
-      </c>
-      <c r="P32" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R32" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S32" s="4"/>
-      <c r="T32" s="9"/>
+      <c r="O32" s="2">
+        <v>1</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R32" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S32" s="2"/>
+      <c r="T32" s="7"/>
     </row>
     <row r="33" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L33" s="8" t="s">
+      <c r="L33" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="M33" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="N33" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O33" s="2">
         <v>2</v>
       </c>
-      <c r="P33" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R33" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S33" s="4"/>
-      <c r="T33" s="9"/>
+      <c r="P33" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R33" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S33" s="2"/>
+      <c r="T33" s="7"/>
     </row>
     <row r="34" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L34" s="8" t="s">
+      <c r="L34" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="M34" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="N34" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="O34" s="4">
-        <v>1</v>
-      </c>
-      <c r="P34" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R34" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S34" s="4"/>
-      <c r="T34" s="9"/>
+      <c r="O34" s="2">
+        <v>1</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R34" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S34" s="2"/>
+      <c r="T34" s="7"/>
     </row>
     <row r="35" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L35" s="8" t="s">
+      <c r="L35" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="M35" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N35" s="4" t="s">
+      <c r="N35" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35" s="2">
         <v>2</v>
       </c>
-      <c r="P35" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R35" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S35" s="4"/>
-      <c r="T35" s="9">
+      <c r="P35" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R35" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S35" s="2"/>
+      <c r="T35" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L36" s="8" t="s">
+      <c r="L36" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="M36" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="N36" s="4" t="s">
+      <c r="N36" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="O36" s="4">
-        <v>1</v>
-      </c>
-      <c r="P36" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R36" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S36" s="4"/>
-      <c r="T36" s="9">
+      <c r="O36" s="2">
+        <v>1</v>
+      </c>
+      <c r="P36" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R36" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S36" s="2"/>
+      <c r="T36" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L37" s="8" t="s">
+      <c r="L37" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="M37" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N37" s="4" t="s">
+      <c r="N37" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="O37" s="4">
+      <c r="O37" s="2">
         <v>2</v>
       </c>
-      <c r="P37" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R37" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S37" s="4"/>
-      <c r="T37" s="9"/>
+      <c r="P37" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R37" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S37" s="2"/>
+      <c r="T37" s="7"/>
     </row>
     <row r="38" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L38" s="8" t="s">
+      <c r="L38" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="M38" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="N38" s="4" t="s">
+      <c r="N38" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="O38" s="4">
-        <v>1</v>
-      </c>
-      <c r="P38" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q38" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R38" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S38" s="4"/>
-      <c r="T38" s="9"/>
+      <c r="O38" s="2">
+        <v>1</v>
+      </c>
+      <c r="P38" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R38" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S38" s="2"/>
+      <c r="T38" s="7"/>
     </row>
     <row r="39" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L39" s="8" t="s">
+      <c r="L39" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="M39" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="N39" s="4" t="s">
+      <c r="N39" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="O39" s="4">
+      <c r="O39" s="2">
         <v>2</v>
       </c>
-      <c r="P39" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q39" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R39" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S39" s="4"/>
-      <c r="T39" s="9"/>
+      <c r="P39" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R39" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S39" s="2"/>
+      <c r="T39" s="7"/>
     </row>
     <row r="40" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L40" s="8" t="s">
+      <c r="L40" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="M40" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="N40" s="4" t="s">
+      <c r="N40" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="O40" s="4">
-        <v>1</v>
-      </c>
-      <c r="P40" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q40" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R40" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S40" s="4"/>
-      <c r="T40" s="9"/>
+      <c r="O40" s="2">
+        <v>1</v>
+      </c>
+      <c r="P40" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R40" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S40" s="2"/>
+      <c r="T40" s="7"/>
     </row>
     <row r="41" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L41" s="8" t="s">
+      <c r="L41" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="M41" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="N41" s="4" t="s">
+      <c r="N41" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="O41" s="4">
+      <c r="O41" s="2">
         <v>2</v>
       </c>
-      <c r="P41" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R41" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S41" s="4"/>
-      <c r="T41" s="9"/>
+      <c r="P41" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R41" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S41" s="2"/>
+      <c r="T41" s="7"/>
     </row>
     <row r="42" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L42" s="8" t="s">
+      <c r="L42" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="M42" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="N42" s="4" t="s">
+      <c r="N42" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="O42" s="4">
-        <v>1</v>
-      </c>
-      <c r="P42" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R42" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S42" s="4"/>
-      <c r="T42" s="9">
+      <c r="O42" s="2">
+        <v>1</v>
+      </c>
+      <c r="P42" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R42" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S42" s="2"/>
+      <c r="T42" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L43" s="8" t="s">
+      <c r="L43" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="M43" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="N43" s="4" t="s">
+      <c r="N43" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O43" s="2">
         <v>2</v>
       </c>
-      <c r="P43" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R43" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S43" s="4"/>
-      <c r="T43" s="9"/>
+      <c r="P43" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R43" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S43" s="2"/>
+      <c r="T43" s="7"/>
     </row>
     <row r="44" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L44" s="8" t="s">
+      <c r="L44" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="M44" s="4" t="s">
+      <c r="M44" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="N44" s="4" t="s">
+      <c r="N44" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="O44" s="4">
-        <v>1</v>
-      </c>
-      <c r="P44" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q44" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R44" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S44" s="4"/>
-      <c r="T44" s="9"/>
+      <c r="O44" s="2">
+        <v>1</v>
+      </c>
+      <c r="P44" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R44" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S44" s="2"/>
+      <c r="T44" s="7"/>
     </row>
     <row r="45" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L45" s="8" t="s">
+      <c r="L45" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="M45" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="N45" s="4" t="s">
+      <c r="N45" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="O45" s="4">
+      <c r="O45" s="2">
         <v>2</v>
       </c>
-      <c r="P45" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q45" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R45" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S45" s="4"/>
-      <c r="T45" s="9"/>
+      <c r="P45" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R45" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S45" s="2"/>
+      <c r="T45" s="7"/>
     </row>
     <row r="46" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L46" s="8" t="s">
+      <c r="L46" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="M46" s="4" t="s">
+      <c r="M46" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="N46" s="4" t="s">
+      <c r="N46" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="O46" s="4">
-        <v>1</v>
-      </c>
-      <c r="P46" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q46" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R46" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S46" s="4"/>
-      <c r="T46" s="9"/>
+      <c r="O46" s="2">
+        <v>1</v>
+      </c>
+      <c r="P46" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R46" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S46" s="2"/>
+      <c r="T46" s="7"/>
     </row>
     <row r="47" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L47" s="8" t="s">
+      <c r="L47" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="M47" s="4" t="s">
+      <c r="M47" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="N47" s="4" t="s">
+      <c r="N47" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="O47" s="4">
+      <c r="O47" s="2">
         <v>2</v>
       </c>
-      <c r="P47" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q47" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R47" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S47" s="4"/>
-      <c r="T47" s="9"/>
+      <c r="P47" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R47" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S47" s="2"/>
+      <c r="T47" s="7"/>
     </row>
     <row r="48" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L48" s="8" t="s">
+      <c r="L48" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="M48" s="4" t="s">
+      <c r="M48" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="N48" s="4" t="s">
+      <c r="N48" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="O48" s="4">
-        <v>1</v>
-      </c>
-      <c r="P48" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q48" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R48" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S48" s="4"/>
-      <c r="T48" s="9"/>
+      <c r="O48" s="2">
+        <v>1</v>
+      </c>
+      <c r="P48" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R48" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S48" s="2"/>
+      <c r="T48" s="7"/>
     </row>
     <row r="49" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L49" s="8" t="s">
+      <c r="L49" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M49" s="4" t="s">
+      <c r="M49" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="N49" s="4" t="s">
+      <c r="N49" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="O49" s="4">
+      <c r="O49" s="2">
         <v>2</v>
       </c>
-      <c r="P49" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q49" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R49" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S49" s="4"/>
-      <c r="T49" s="9"/>
+      <c r="P49" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R49" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S49" s="2"/>
+      <c r="T49" s="7"/>
     </row>
     <row r="50" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L50" s="8" t="s">
+      <c r="L50" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M50" s="4" t="s">
+      <c r="M50" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="N50" s="4" t="s">
+      <c r="N50" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="O50" s="4">
-        <v>1</v>
-      </c>
-      <c r="P50" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q50" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R50" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S50" s="4"/>
-      <c r="T50" s="9">
+      <c r="O50" s="2">
+        <v>1</v>
+      </c>
+      <c r="P50" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R50" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S50" s="2"/>
+      <c r="T50" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L51" s="8" t="s">
+      <c r="L51" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="M51" s="4" t="s">
+      <c r="M51" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="N51" s="4" t="s">
+      <c r="N51" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="O51" s="4">
+      <c r="O51" s="2">
         <v>2</v>
       </c>
-      <c r="P51" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q51" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R51" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S51" s="4"/>
-      <c r="T51" s="9">
+      <c r="P51" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R51" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S51" s="2"/>
+      <c r="T51" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L52" s="8" t="s">
+      <c r="L52" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M52" s="4" t="s">
+      <c r="M52" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="N52" s="4" t="s">
+      <c r="N52" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="O52" s="4">
-        <v>1</v>
-      </c>
-      <c r="P52" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q52" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R52" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S52" s="4"/>
-      <c r="T52" s="9"/>
+      <c r="O52" s="2">
+        <v>1</v>
+      </c>
+      <c r="P52" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R52" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S52" s="2"/>
+      <c r="T52" s="7"/>
     </row>
     <row r="53" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L53" s="8" t="s">
+      <c r="L53" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="M53" s="4" t="s">
+      <c r="M53" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="N53" s="4" t="s">
+      <c r="N53" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="O53" s="4">
+      <c r="O53" s="2">
         <v>2</v>
       </c>
-      <c r="P53" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q53" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R53" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S53" s="4"/>
-      <c r="T53" s="9"/>
+      <c r="P53" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R53" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S53" s="2"/>
+      <c r="T53" s="7"/>
     </row>
     <row r="54" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L54" s="8" t="s">
+      <c r="L54" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="M54" s="4" t="s">
+      <c r="M54" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="N54" s="4" t="s">
+      <c r="N54" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="O54" s="4">
-        <v>1</v>
-      </c>
-      <c r="P54" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q54" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R54" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S54" s="4"/>
-      <c r="T54" s="9"/>
+      <c r="O54" s="2">
+        <v>1</v>
+      </c>
+      <c r="P54" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R54" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S54" s="2"/>
+      <c r="T54" s="7"/>
     </row>
     <row r="55" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L55" s="8" t="s">
+      <c r="L55" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="M55" s="4" t="s">
+      <c r="M55" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="N55" s="4" t="s">
+      <c r="N55" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="O55" s="4">
+      <c r="O55" s="2">
         <v>2</v>
       </c>
-      <c r="P55" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q55" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R55" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S55" s="4"/>
-      <c r="T55" s="9"/>
+      <c r="P55" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R55" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S55" s="2"/>
+      <c r="T55" s="7"/>
     </row>
     <row r="56" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L56" s="8" t="s">
+      <c r="L56" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="M56" s="4" t="s">
+      <c r="M56" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="N56" s="4" t="s">
+      <c r="N56" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="O56" s="4">
-        <v>1</v>
-      </c>
-      <c r="P56" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q56" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R56" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S56" s="4"/>
-      <c r="T56" s="9"/>
+      <c r="O56" s="2">
+        <v>1</v>
+      </c>
+      <c r="P56" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R56" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S56" s="2"/>
+      <c r="T56" s="7"/>
     </row>
     <row r="57" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L57" s="8" t="s">
+      <c r="L57" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="M57" s="4" t="s">
+      <c r="M57" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="N57" s="4" t="s">
+      <c r="N57" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="O57" s="4">
+      <c r="O57" s="2">
         <v>2</v>
       </c>
-      <c r="P57" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q57" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R57" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S57" s="4"/>
-      <c r="T57" s="9">
+      <c r="P57" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R57" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S57" s="2"/>
+      <c r="T57" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L58" s="8" t="s">
+      <c r="L58" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="M58" s="4" t="s">
+      <c r="M58" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="N58" s="4" t="s">
+      <c r="N58" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="O58" s="4">
-        <v>1</v>
-      </c>
-      <c r="P58" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q58" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R58" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S58" s="4"/>
-      <c r="T58" s="9"/>
+      <c r="O58" s="2">
+        <v>1</v>
+      </c>
+      <c r="P58" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R58" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S58" s="2"/>
+      <c r="T58" s="7"/>
     </row>
     <row r="59" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L59" s="8" t="s">
+      <c r="L59" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="M59" s="4" t="s">
+      <c r="M59" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="N59" s="4" t="s">
+      <c r="N59" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="O59" s="4">
+      <c r="O59" s="2">
         <v>2</v>
       </c>
-      <c r="P59" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q59" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R59" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S59" s="4"/>
-      <c r="T59" s="9"/>
+      <c r="P59" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R59" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S59" s="2"/>
+      <c r="T59" s="7"/>
     </row>
     <row r="60" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L60" s="8" t="s">
+      <c r="L60" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="M60" s="4" t="s">
+      <c r="M60" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="N60" s="4" t="s">
+      <c r="N60" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="O60" s="4">
-        <v>1</v>
-      </c>
-      <c r="P60" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q60" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R60" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S60" s="4"/>
-      <c r="T60" s="9"/>
+      <c r="O60" s="2">
+        <v>1</v>
+      </c>
+      <c r="P60" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R60" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S60" s="2"/>
+      <c r="T60" s="7"/>
     </row>
     <row r="61" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L61" s="8" t="s">
+      <c r="L61" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="M61" s="4" t="s">
+      <c r="M61" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="N61" s="4" t="s">
+      <c r="N61" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="O61" s="4">
+      <c r="O61" s="2">
         <v>2</v>
       </c>
-      <c r="P61" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q61" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R61" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S61" s="4"/>
-      <c r="T61" s="9"/>
+      <c r="P61" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R61" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S61" s="2"/>
+      <c r="T61" s="7"/>
     </row>
     <row r="62" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L62" s="8" t="s">
+      <c r="L62" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="M62" s="4" t="s">
+      <c r="M62" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N62" s="4" t="s">
+      <c r="N62" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="O62" s="4">
-        <v>1</v>
-      </c>
-      <c r="P62" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q62" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R62" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S62" s="4"/>
-      <c r="T62" s="9"/>
+      <c r="O62" s="2">
+        <v>1</v>
+      </c>
+      <c r="P62" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R62" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S62" s="2"/>
+      <c r="T62" s="7"/>
     </row>
     <row r="63" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L63" s="8" t="s">
+      <c r="L63" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="M63" s="4" t="s">
+      <c r="M63" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="N63" s="4" t="s">
+      <c r="N63" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="O63" s="4">
+      <c r="O63" s="2">
         <v>2</v>
       </c>
-      <c r="P63" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q63" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R63" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S63" s="4"/>
-      <c r="T63" s="9"/>
+      <c r="P63" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R63" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S63" s="2"/>
+      <c r="T63" s="7"/>
     </row>
     <row r="64" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L64" s="8" t="s">
+      <c r="L64" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="M64" s="4" t="s">
+      <c r="M64" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="N64" s="4" t="s">
+      <c r="N64" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="O64" s="4">
-        <v>1</v>
-      </c>
-      <c r="P64" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q64" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R64" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S64" s="4"/>
-      <c r="T64" s="9"/>
+      <c r="O64" s="2">
+        <v>1</v>
+      </c>
+      <c r="P64" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R64" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S64" s="2"/>
+      <c r="T64" s="7"/>
     </row>
     <row r="65" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L65" s="8" t="s">
+      <c r="L65" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="M65" s="4" t="s">
+      <c r="M65" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="N65" s="4" t="s">
+      <c r="N65" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="O65" s="4">
+      <c r="O65" s="2">
         <v>2</v>
       </c>
-      <c r="P65" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q65" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R65" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S65" s="4"/>
-      <c r="T65" s="9">
+      <c r="P65" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R65" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S65" s="2"/>
+      <c r="T65" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L66" s="8" t="s">
+      <c r="L66" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="M66" s="4" t="s">
+      <c r="M66" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="N66" s="4" t="s">
+      <c r="N66" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="O66" s="4">
-        <v>1</v>
-      </c>
-      <c r="P66" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q66" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R66" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S66" s="4"/>
-      <c r="T66" s="9">
+      <c r="O66" s="2">
+        <v>1</v>
+      </c>
+      <c r="P66" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R66" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S66" s="2"/>
+      <c r="T66" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L67" s="8" t="s">
+      <c r="L67" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="M67" s="4" t="s">
+      <c r="M67" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="N67" s="4" t="s">
+      <c r="N67" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="O67" s="4">
+      <c r="O67" s="2">
         <v>2</v>
       </c>
-      <c r="P67" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q67" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R67" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S67" s="4"/>
-      <c r="T67" s="9"/>
+      <c r="P67" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R67" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S67" s="2"/>
+      <c r="T67" s="7"/>
     </row>
     <row r="68" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L68" s="8" t="s">
+      <c r="L68" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M68" s="4" t="s">
+      <c r="M68" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="N68" s="4" t="s">
+      <c r="N68" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="O68" s="4">
-        <v>1</v>
-      </c>
-      <c r="P68" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q68" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R68" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S68" s="4"/>
-      <c r="T68" s="9"/>
+      <c r="O68" s="2">
+        <v>1</v>
+      </c>
+      <c r="P68" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R68" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S68" s="2"/>
+      <c r="T68" s="7"/>
     </row>
     <row r="69" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L69" s="8" t="s">
+      <c r="L69" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="M69" s="4" t="s">
+      <c r="M69" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="N69" s="4" t="s">
+      <c r="N69" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="O69" s="4">
+      <c r="O69" s="2">
         <v>2</v>
       </c>
-      <c r="P69" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q69" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R69" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S69" s="4"/>
-      <c r="T69" s="9"/>
+      <c r="P69" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R69" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S69" s="2"/>
+      <c r="T69" s="7"/>
     </row>
     <row r="70" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L70" s="8" t="s">
+      <c r="L70" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="M70" s="4" t="s">
+      <c r="M70" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="N70" s="4" t="s">
+      <c r="N70" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="O70" s="4">
-        <v>1</v>
-      </c>
-      <c r="P70" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q70" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R70" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S70" s="4"/>
-      <c r="T70" s="9"/>
+      <c r="O70" s="2">
+        <v>1</v>
+      </c>
+      <c r="P70" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R70" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S70" s="2"/>
+      <c r="T70" s="7"/>
     </row>
     <row r="71" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L71" s="8" t="s">
+      <c r="L71" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="M71" s="4" t="s">
+      <c r="M71" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="N71" s="4" t="s">
+      <c r="N71" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="O71" s="4">
+      <c r="O71" s="2">
         <v>2</v>
       </c>
-      <c r="P71" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q71" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R71" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S71" s="4"/>
-      <c r="T71" s="9"/>
+      <c r="P71" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R71" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S71" s="2"/>
+      <c r="T71" s="7"/>
     </row>
     <row r="72" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L72" s="8" t="s">
+      <c r="L72" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="M72" s="4" t="s">
+      <c r="M72" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="N72" s="4" t="s">
+      <c r="N72" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="O72" s="4">
-        <v>1</v>
-      </c>
-      <c r="P72" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q72" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R72" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S72" s="4"/>
-      <c r="T72" s="9">
+      <c r="O72" s="2">
+        <v>1</v>
+      </c>
+      <c r="P72" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R72" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S72" s="2"/>
+      <c r="T72" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L73" s="8" t="s">
+      <c r="L73" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="M73" s="4" t="s">
+      <c r="M73" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="N73" s="4" t="s">
+      <c r="N73" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="O73" s="4">
+      <c r="O73" s="2">
         <v>2</v>
       </c>
-      <c r="P73" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q73" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R73" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S73" s="4"/>
-      <c r="T73" s="9"/>
+      <c r="P73" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R73" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S73" s="2"/>
+      <c r="T73" s="7"/>
     </row>
     <row r="74" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L74" s="8" t="s">
+      <c r="L74" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="M74" s="4" t="s">
+      <c r="M74" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="N74" s="4" t="s">
+      <c r="N74" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="O74" s="4">
-        <v>1</v>
-      </c>
-      <c r="P74" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q74" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R74" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S74" s="4"/>
-      <c r="T74" s="9"/>
+      <c r="O74" s="2">
+        <v>1</v>
+      </c>
+      <c r="P74" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R74" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S74" s="2"/>
+      <c r="T74" s="7"/>
     </row>
     <row r="75" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L75" s="8" t="s">
+      <c r="L75" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M75" s="4" t="s">
+      <c r="M75" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="N75" s="4" t="s">
+      <c r="N75" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="O75" s="4">
+      <c r="O75" s="2">
         <v>2</v>
       </c>
-      <c r="P75" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q75" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R75" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S75" s="4"/>
-      <c r="T75" s="9"/>
+      <c r="P75" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R75" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S75" s="2"/>
+      <c r="T75" s="7"/>
     </row>
     <row r="76" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L76" s="8" t="s">
+      <c r="L76" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="M76" s="4" t="s">
+      <c r="M76" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="N76" s="4" t="s">
+      <c r="N76" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="O76" s="4">
-        <v>1</v>
-      </c>
-      <c r="P76" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q76" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R76" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S76" s="4"/>
-      <c r="T76" s="9"/>
+      <c r="O76" s="2">
+        <v>1</v>
+      </c>
+      <c r="P76" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R76" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S76" s="2"/>
+      <c r="T76" s="7"/>
     </row>
     <row r="77" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L77" s="8" t="s">
+      <c r="L77" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="M77" s="4" t="s">
+      <c r="M77" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="N77" s="4" t="s">
+      <c r="N77" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="O77" s="4">
+      <c r="O77" s="2">
         <v>2</v>
       </c>
-      <c r="P77" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q77" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R77" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S77" s="4"/>
-      <c r="T77" s="9"/>
+      <c r="P77" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R77" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S77" s="2"/>
+      <c r="T77" s="7"/>
     </row>
     <row r="78" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L78" s="8" t="s">
+      <c r="L78" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="M78" s="4" t="s">
+      <c r="M78" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="N78" s="4" t="s">
+      <c r="N78" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="O78" s="4">
-        <v>1</v>
-      </c>
-      <c r="P78" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q78" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R78" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S78" s="4"/>
-      <c r="T78" s="9"/>
+      <c r="O78" s="2">
+        <v>1</v>
+      </c>
+      <c r="P78" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R78" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S78" s="2"/>
+      <c r="T78" s="7"/>
     </row>
     <row r="79" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L79" s="8" t="s">
+      <c r="L79" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="M79" s="4" t="s">
+      <c r="M79" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="N79" s="4" t="s">
+      <c r="N79" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="O79" s="4">
+      <c r="O79" s="2">
         <v>2</v>
       </c>
-      <c r="P79" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q79" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R79" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S79" s="4"/>
-      <c r="T79" s="9"/>
+      <c r="P79" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R79" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S79" s="2"/>
+      <c r="T79" s="7"/>
     </row>
     <row r="80" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L80" s="8" t="s">
+      <c r="L80" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="M80" s="4" t="s">
+      <c r="M80" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="N80" s="4" t="s">
+      <c r="N80" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="O80" s="4">
-        <v>1</v>
-      </c>
-      <c r="P80" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q80" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R80" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S80" s="4"/>
-      <c r="T80" s="9">
+      <c r="O80" s="2">
+        <v>1</v>
+      </c>
+      <c r="P80" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R80" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S80" s="2"/>
+      <c r="T80" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L81" s="8" t="s">
+      <c r="L81" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="M81" s="4" t="s">
+      <c r="M81" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="N81" s="4" t="s">
+      <c r="N81" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="O81" s="4">
+      <c r="O81" s="2">
         <v>2</v>
       </c>
-      <c r="P81" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q81" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R81" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S81" s="4"/>
-      <c r="T81" s="9">
+      <c r="P81" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q81" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R81" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S81" s="2"/>
+      <c r="T81" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L82" s="8" t="s">
+      <c r="L82" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="M82" s="4" t="s">
+      <c r="M82" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="N82" s="4" t="s">
+      <c r="N82" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="O82" s="4">
-        <v>1</v>
-      </c>
-      <c r="P82" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q82" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R82" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S82" s="4"/>
-      <c r="T82" s="9"/>
+      <c r="O82" s="2">
+        <v>1</v>
+      </c>
+      <c r="P82" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R82" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S82" s="2"/>
+      <c r="T82" s="7"/>
     </row>
     <row r="83" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L83" s="8" t="s">
+      <c r="L83" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="M83" s="4" t="s">
+      <c r="M83" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="N83" s="4" t="s">
+      <c r="N83" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="O83" s="4">
+      <c r="O83" s="2">
         <v>2</v>
       </c>
-      <c r="P83" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q83" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R83" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S83" s="4"/>
-      <c r="T83" s="9"/>
+      <c r="P83" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R83" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S83" s="2"/>
+      <c r="T83" s="7"/>
     </row>
     <row r="84" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L84" s="8" t="s">
+      <c r="L84" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="M84" s="4" t="s">
+      <c r="M84" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="N84" s="4" t="s">
+      <c r="N84" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="O84" s="4">
-        <v>1</v>
-      </c>
-      <c r="P84" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q84" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R84" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S84" s="4"/>
-      <c r="T84" s="9"/>
+      <c r="O84" s="2">
+        <v>1</v>
+      </c>
+      <c r="P84" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R84" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S84" s="2"/>
+      <c r="T84" s="7"/>
     </row>
     <row r="85" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L85" s="8" t="s">
+      <c r="L85" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="M85" s="4" t="s">
+      <c r="M85" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N85" s="4" t="s">
+      <c r="N85" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="O85" s="4">
+      <c r="O85" s="2">
         <v>2</v>
       </c>
-      <c r="P85" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q85" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R85" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S85" s="4"/>
-      <c r="T85" s="9"/>
+      <c r="P85" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R85" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S85" s="2"/>
+      <c r="T85" s="7"/>
     </row>
     <row r="86" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L86" s="8" t="s">
+      <c r="L86" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="M86" s="4" t="s">
+      <c r="M86" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="N86" s="4" t="s">
+      <c r="N86" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="O86" s="4">
-        <v>1</v>
-      </c>
-      <c r="P86" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q86" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R86" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S86" s="4"/>
-      <c r="T86" s="9"/>
+      <c r="O86" s="2">
+        <v>1</v>
+      </c>
+      <c r="P86" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R86" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S86" s="2"/>
+      <c r="T86" s="7"/>
     </row>
     <row r="87" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L87" s="8" t="s">
+      <c r="L87" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="M87" s="4" t="s">
+      <c r="M87" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="N87" s="4" t="s">
+      <c r="N87" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="O87" s="4">
+      <c r="O87" s="2">
         <v>2</v>
       </c>
-      <c r="P87" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q87" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R87" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S87" s="4"/>
-      <c r="T87" s="9">
+      <c r="P87" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q87" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R87" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S87" s="2"/>
+      <c r="T87" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L88" s="8" t="s">
+      <c r="L88" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="M88" s="4" t="s">
+      <c r="M88" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="N88" s="4" t="s">
+      <c r="N88" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="O88" s="4">
-        <v>1</v>
-      </c>
-      <c r="P88" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q88" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R88" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S88" s="4"/>
-      <c r="T88" s="9"/>
+      <c r="O88" s="2">
+        <v>1</v>
+      </c>
+      <c r="P88" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R88" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S88" s="2"/>
+      <c r="T88" s="7"/>
     </row>
     <row r="89" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L89" s="8" t="s">
+      <c r="L89" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="M89" s="4" t="s">
+      <c r="M89" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="N89" s="4" t="s">
+      <c r="N89" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="O89" s="4">
+      <c r="O89" s="2">
         <v>2</v>
       </c>
-      <c r="P89" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q89" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R89" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S89" s="4"/>
-      <c r="T89" s="9"/>
+      <c r="P89" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R89" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S89" s="2"/>
+      <c r="T89" s="7"/>
     </row>
     <row r="90" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L90" s="8" t="s">
+      <c r="L90" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="M90" s="4" t="s">
+      <c r="M90" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="N90" s="4" t="s">
+      <c r="N90" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="O90" s="4">
-        <v>1</v>
-      </c>
-      <c r="P90" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q90" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R90" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S90" s="4"/>
-      <c r="T90" s="9"/>
+      <c r="O90" s="2">
+        <v>1</v>
+      </c>
+      <c r="P90" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R90" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S90" s="2"/>
+      <c r="T90" s="7"/>
     </row>
     <row r="91" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L91" s="8" t="s">
+      <c r="L91" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="M91" s="4" t="s">
+      <c r="M91" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="N91" s="4" t="s">
+      <c r="N91" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="O91" s="4">
+      <c r="O91" s="2">
         <v>2</v>
       </c>
-      <c r="P91" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q91" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R91" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S91" s="4"/>
-      <c r="T91" s="9"/>
+      <c r="P91" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q91" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R91" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S91" s="2"/>
+      <c r="T91" s="7"/>
     </row>
     <row r="92" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L92" s="8" t="s">
+      <c r="L92" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="M92" s="4" t="s">
+      <c r="M92" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="N92" s="4" t="s">
+      <c r="N92" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="O92" s="4">
-        <v>1</v>
-      </c>
-      <c r="P92" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q92" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R92" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S92" s="4"/>
-      <c r="T92" s="9"/>
+      <c r="O92" s="2">
+        <v>1</v>
+      </c>
+      <c r="P92" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R92" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S92" s="2"/>
+      <c r="T92" s="7"/>
     </row>
     <row r="93" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L93" s="8" t="s">
+      <c r="L93" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="M93" s="4" t="s">
+      <c r="M93" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="N93" s="4" t="s">
+      <c r="N93" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="O93" s="4">
+      <c r="O93" s="2">
         <v>2</v>
       </c>
-      <c r="P93" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q93" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R93" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S93" s="4"/>
-      <c r="T93" s="9"/>
+      <c r="P93" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q93" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R93" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S93" s="2"/>
+      <c r="T93" s="7"/>
     </row>
     <row r="94" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L94" s="8" t="s">
+      <c r="L94" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="M94" s="4" t="s">
+      <c r="M94" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="N94" s="4" t="s">
+      <c r="N94" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="O94" s="4">
-        <v>1</v>
-      </c>
-      <c r="P94" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q94" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R94" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S94" s="4"/>
-      <c r="T94" s="9"/>
+      <c r="O94" s="2">
+        <v>1</v>
+      </c>
+      <c r="P94" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q94" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R94" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S94" s="2"/>
+      <c r="T94" s="7"/>
     </row>
     <row r="95" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L95" s="8" t="s">
+      <c r="L95" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="M95" s="4" t="s">
+      <c r="M95" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="N95" s="4" t="s">
+      <c r="N95" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="O95" s="4">
+      <c r="O95" s="2">
         <v>2</v>
       </c>
-      <c r="P95" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q95" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R95" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S95" s="4"/>
-      <c r="T95" s="9">
+      <c r="P95" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q95" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R95" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S95" s="2"/>
+      <c r="T95" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L96" s="8" t="s">
+      <c r="L96" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="M96" s="4" t="s">
+      <c r="M96" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="N96" s="4" t="s">
+      <c r="N96" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="O96" s="4">
-        <v>1</v>
-      </c>
-      <c r="P96" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q96" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R96" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S96" s="4"/>
-      <c r="T96" s="9">
+      <c r="O96" s="2">
+        <v>1</v>
+      </c>
+      <c r="P96" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q96" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R96" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S96" s="2"/>
+      <c r="T96" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L97" s="8" t="s">
+      <c r="L97" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="M97" s="4" t="s">
+      <c r="M97" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="N97" s="4" t="s">
+      <c r="N97" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="O97" s="4">
+      <c r="O97" s="2">
         <v>2</v>
       </c>
-      <c r="P97" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q97" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R97" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S97" s="4"/>
-      <c r="T97" s="9"/>
+      <c r="P97" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q97" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R97" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S97" s="2"/>
+      <c r="T97" s="7"/>
     </row>
     <row r="98" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L98" s="8" t="s">
+      <c r="L98" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="M98" s="4" t="s">
+      <c r="M98" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="N98" s="4" t="s">
+      <c r="N98" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="O98" s="4">
-        <v>1</v>
-      </c>
-      <c r="P98" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q98" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R98" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S98" s="4"/>
-      <c r="T98" s="9"/>
+      <c r="O98" s="2">
+        <v>1</v>
+      </c>
+      <c r="P98" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q98" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R98" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S98" s="2"/>
+      <c r="T98" s="7"/>
     </row>
     <row r="99" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L99" s="8" t="s">
+      <c r="L99" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="M99" s="4" t="s">
+      <c r="M99" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="N99" s="4" t="s">
+      <c r="N99" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="O99" s="4">
+      <c r="O99" s="2">
         <v>2</v>
       </c>
-      <c r="P99" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q99" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R99" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S99" s="4"/>
-      <c r="T99" s="9"/>
+      <c r="P99" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q99" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R99" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S99" s="2"/>
+      <c r="T99" s="7"/>
     </row>
     <row r="100" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L100" s="8" t="s">
+      <c r="L100" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="M100" s="4" t="s">
+      <c r="M100" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="N100" s="4" t="s">
+      <c r="N100" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="O100" s="4">
-        <v>1</v>
-      </c>
-      <c r="P100" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q100" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R100" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S100" s="4"/>
-      <c r="T100" s="9"/>
+      <c r="O100" s="2">
+        <v>1</v>
+      </c>
+      <c r="P100" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q100" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R100" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S100" s="2"/>
+      <c r="T100" s="7"/>
     </row>
     <row r="101" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L101" s="8" t="s">
+      <c r="L101" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="M101" s="4" t="s">
+      <c r="M101" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N101" s="4" t="s">
+      <c r="N101" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="O101" s="4">
+      <c r="O101" s="2">
         <v>2</v>
       </c>
-      <c r="P101" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q101" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R101" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S101" s="4"/>
-      <c r="T101" s="9"/>
+      <c r="P101" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q101" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R101" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S101" s="2"/>
+      <c r="T101" s="7"/>
     </row>
     <row r="102" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="L102" s="8" t="s">
+      <c r="L102" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M102" s="4" t="s">
+      <c r="M102" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="N102" s="4" t="s">
+      <c r="N102" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="O102" s="4">
-        <v>1</v>
-      </c>
-      <c r="P102" s="4">
-        <v>1234</v>
-      </c>
-      <c r="Q102" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R102" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="S102" s="4"/>
-      <c r="T102" s="9">
+      <c r="O102" s="2">
+        <v>1</v>
+      </c>
+      <c r="P102" s="2">
+        <v>1234</v>
+      </c>
+      <c r="Q102" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R102" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="S102" s="2"/>
+      <c r="T102" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="12:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="L103" s="10" t="s">
+      <c r="L103" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="M103" s="11" t="s">
+      <c r="M103" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="N103" s="11" t="s">
+      <c r="N103" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="O103" s="11">
+      <c r="O103" s="9">
         <v>2</v>
       </c>
-      <c r="P103" s="11">
-        <v>1234</v>
-      </c>
-      <c r="Q103" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="R103" s="11">
-        <v>1234567890</v>
-      </c>
-      <c r="S103" s="11"/>
-      <c r="T103" s="12"/>
+      <c r="P103" s="9">
+        <v>1234</v>
+      </c>
+      <c r="Q103" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R103" s="9">
+        <v>1234567890</v>
+      </c>
+      <c r="S103" s="9"/>
+      <c r="T103" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4912,515 +4912,606 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB77BCB-8849-41F6-8684-B1BDB7908F6A}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="11" max="11" width="3.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="K2" s="5">
-        <v>1</v>
-      </c>
-      <c r="L2" s="6">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4">
         <v>20220401</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="K3" s="8">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="K3" s="6">
         <v>2</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="2">
         <v>20220402</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="2">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="K4" s="8">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="K4" s="6">
         <v>3</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="2">
         <v>20220403</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="2">
+        <v>3</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="O4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="K5" s="8">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="K5" s="6">
         <v>4</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="2">
         <v>20220404</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="O5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="K6" s="8">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="K6" s="6">
         <v>5</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="2">
         <v>20220405</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="2">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="O6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="K7" s="8">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="K7" s="6">
         <v>6</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="2">
         <v>20220406</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="2">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="O7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="K8" s="8">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="K8" s="6">
         <v>7</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="2">
         <v>20220407</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="O8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="K9" s="8">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="K9" s="6">
         <v>8</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="2">
         <v>20220408</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="2">
+        <v>2</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="O9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="K10" s="8">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="K10" s="6">
         <v>9</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="2">
         <v>20220409</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="2">
+        <v>3</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="O10" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="K11" s="8">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="K11" s="6">
         <v>10</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="2">
         <v>20220410</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="O11" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="K12" s="8">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="K12" s="6">
         <v>11</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="2">
         <v>20220411</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="2">
+        <v>2</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="O12" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="K13" s="8">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="K13" s="6">
         <v>12</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="2">
         <v>20220412</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="2">
+        <v>3</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="O13" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="K14" s="8">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="K14" s="6">
         <v>13</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="2">
         <v>20220413</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="O14" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="K15" s="8">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="K15" s="6">
         <v>14</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="2">
         <v>20220414</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="2">
+        <v>2</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="O15" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="K16" s="8">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="K16" s="6">
         <v>15</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="2">
         <v>20220415</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="2">
+        <v>3</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="O16" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="11:14" x14ac:dyDescent="0.45">
-      <c r="K17" s="8">
+    <row r="17" spans="11:15" x14ac:dyDescent="0.45">
+      <c r="K17" s="6">
         <v>16</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="2">
         <v>20220416</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="O17" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="11:14" x14ac:dyDescent="0.45">
-      <c r="K18" s="8">
+    <row r="18" spans="11:15" x14ac:dyDescent="0.45">
+      <c r="K18" s="6">
         <v>17</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="2">
         <v>20220417</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="2">
+        <v>2</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="O18" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="11:14" x14ac:dyDescent="0.45">
-      <c r="K19" s="8">
+    <row r="19" spans="11:15" x14ac:dyDescent="0.45">
+      <c r="K19" s="6">
         <v>18</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="2">
         <v>20220418</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="2">
+        <v>3</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="O19" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="11:14" x14ac:dyDescent="0.45">
-      <c r="K20" s="8">
+    <row r="20" spans="11:15" x14ac:dyDescent="0.45">
+      <c r="K20" s="6">
         <v>19</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="2">
         <v>20220419</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N20" s="9" t="s">
+      <c r="O20" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="11:14" x14ac:dyDescent="0.45">
-      <c r="K21" s="8">
+    <row r="21" spans="11:15" x14ac:dyDescent="0.45">
+      <c r="K21" s="6">
         <v>20</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="2">
         <v>20220420</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="2">
+        <v>2</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N21" s="9" t="s">
+      <c r="O21" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="11:14" x14ac:dyDescent="0.45">
-      <c r="K22" s="8">
+    <row r="22" spans="11:15" x14ac:dyDescent="0.45">
+      <c r="K22" s="6">
         <v>21</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="2">
         <v>20220421</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="2">
+        <v>3</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N22" s="9" t="s">
+      <c r="O22" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="11:14" x14ac:dyDescent="0.45">
-      <c r="K23" s="8">
+    <row r="23" spans="11:15" x14ac:dyDescent="0.45">
+      <c r="K23" s="6">
         <v>22</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="2">
         <v>20220422</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="2">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N23" s="9" t="s">
+      <c r="O23" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="11:14" x14ac:dyDescent="0.45">
-      <c r="K24" s="8">
+    <row r="24" spans="11:15" x14ac:dyDescent="0.45">
+      <c r="K24" s="6">
         <v>23</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="2">
         <v>20220423</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="2">
+        <v>2</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N24" s="9" t="s">
+      <c r="O24" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="11:14" x14ac:dyDescent="0.45">
-      <c r="K25" s="8">
+    <row r="25" spans="11:15" x14ac:dyDescent="0.45">
+      <c r="K25" s="6">
         <v>24</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="2">
         <v>20220424</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="2">
+        <v>3</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="O25" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="11:14" x14ac:dyDescent="0.45">
-      <c r="K26" s="8">
+    <row r="26" spans="11:15" x14ac:dyDescent="0.45">
+      <c r="K26" s="6">
         <v>25</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="2">
         <v>20220425</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="2">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="9" t="s">
+      <c r="O26" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="11:14" x14ac:dyDescent="0.45">
-      <c r="K27" s="8">
+    <row r="27" spans="11:15" x14ac:dyDescent="0.45">
+      <c r="K27" s="6">
         <v>26</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="2">
         <v>20220426</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="M27" s="2">
+        <v>2</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N27" s="9" t="s">
+      <c r="O27" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="11:14" x14ac:dyDescent="0.45">
-      <c r="K28" s="8">
+    <row r="28" spans="11:15" x14ac:dyDescent="0.45">
+      <c r="K28" s="6">
         <v>27</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="2">
         <v>20220427</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="M28" s="2">
+        <v>3</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N28" s="9" t="s">
+      <c r="O28" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="11:14" x14ac:dyDescent="0.45">
-      <c r="K29" s="8">
+    <row r="29" spans="11:15" x14ac:dyDescent="0.45">
+      <c r="K29" s="6">
         <v>28</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="2">
         <v>20220428</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="2">
+        <v>1</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N29" s="9" t="s">
+      <c r="O29" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="11:14" x14ac:dyDescent="0.45">
-      <c r="K30" s="8">
+    <row r="30" spans="11:15" x14ac:dyDescent="0.45">
+      <c r="K30" s="6">
         <v>29</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="2">
         <v>20220429</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="M30" s="2">
+        <v>2</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N30" s="9" t="s">
+      <c r="O30" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="11:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="K31" s="10">
+    <row r="31" spans="11:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K31" s="8">
         <v>30</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="9">
         <v>20220430</v>
       </c>
-      <c r="M31" s="11" t="s">
+      <c r="M31" s="9">
+        <v>3</v>
+      </c>
+      <c r="N31" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="N31" s="12" t="s">
+      <c r="O31" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5438,8 +5529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA01D8D-1809-4014-8991-A5BD04452E2F}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5448,498 +5539,498 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="L3" s="5">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="L3" s="3">
         <v>20220410</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="7"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="L4" s="8">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="L4" s="6">
         <v>20220411</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="9"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="L5" s="8">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="L5" s="6">
         <v>20220412</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="9"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="L6" s="8">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="L6" s="6">
         <v>20220413</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="9"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="L7" s="8">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="L7" s="6">
         <v>20220414</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4" t="s">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="9"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="L8" s="8">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="L8" s="6">
         <v>20220415</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4" t="s">
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="9"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="L9" s="8">
+      <c r="L9" s="6">
         <v>20220416</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4" t="s">
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="9"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="L10" s="8">
+      <c r="L10" s="6">
         <v>20220417</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4" t="s">
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="9"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="L11" s="8">
+      <c r="L11" s="6">
         <v>20220418</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="9" t="s">
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="7" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="L12" s="8">
+      <c r="L12" s="6">
         <v>20220419</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="9" t="s">
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="L13" s="8">
+      <c r="L13" s="6">
         <v>20220420</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="9" t="s">
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="L14" s="8">
+      <c r="L14" s="6">
         <v>20220421</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="9" t="s">
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="L15" s="8">
+      <c r="L15" s="6">
         <v>20220422</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4" t="s">
+      <c r="N15" s="2"/>
+      <c r="O15" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="9" t="s">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="7" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="L16" s="8">
+      <c r="L16" s="6">
         <v>20220423</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4" t="s">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="9" t="s">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="12:17" x14ac:dyDescent="0.45">
-      <c r="L17" s="8">
+      <c r="L17" s="6">
         <v>20220424</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4" t="s">
+      <c r="N17" s="2"/>
+      <c r="O17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="9" t="s">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="12:17" x14ac:dyDescent="0.45">
-      <c r="L18" s="8">
+      <c r="L18" s="6">
         <v>20220425</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4" t="s">
+      <c r="N18" s="2"/>
+      <c r="O18" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="9" t="s">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="19" spans="12:17" x14ac:dyDescent="0.45">
-      <c r="L19" s="8">
+      <c r="L19" s="6">
         <v>20220501</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="9"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="12:17" x14ac:dyDescent="0.45">
-      <c r="L20" s="8">
+      <c r="L20" s="6">
         <v>20220502</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="9"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="12:17" x14ac:dyDescent="0.45">
-      <c r="L21" s="8">
+      <c r="L21" s="6">
         <v>20220503</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="9"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="12:17" x14ac:dyDescent="0.45">
-      <c r="L22" s="8">
+      <c r="L22" s="6">
         <v>20220504</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="9"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="12:17" x14ac:dyDescent="0.45">
-      <c r="L23" s="8">
+      <c r="L23" s="6">
         <v>20220505</v>
       </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4" t="s">
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="9"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="12:17" x14ac:dyDescent="0.45">
-      <c r="L24" s="8">
+      <c r="L24" s="6">
         <v>20220506</v>
       </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4" t="s">
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="9"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="12:17" x14ac:dyDescent="0.45">
-      <c r="L25" s="8">
+      <c r="L25" s="6">
         <v>20220507</v>
       </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4" t="s">
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="9"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="12:17" x14ac:dyDescent="0.45">
-      <c r="L26" s="8">
+      <c r="L26" s="6">
         <v>20220508</v>
       </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4" t="s">
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="9"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="12:17" x14ac:dyDescent="0.45">
-      <c r="L27" s="8">
+      <c r="L27" s="6">
         <v>20220509</v>
       </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="9" t="s">
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="7" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="28" spans="12:17" x14ac:dyDescent="0.45">
-      <c r="L28" s="8">
+      <c r="L28" s="6">
         <v>20220510</v>
       </c>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="9" t="s">
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="12:17" x14ac:dyDescent="0.45">
-      <c r="L29" s="8">
+      <c r="L29" s="6">
         <v>20220511</v>
       </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="9" t="s">
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="12:17" x14ac:dyDescent="0.45">
-      <c r="L30" s="8">
+      <c r="L30" s="6">
         <v>20220512</v>
       </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="9" t="s">
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="31" spans="12:17" x14ac:dyDescent="0.45">
-      <c r="L31" s="8">
+      <c r="L31" s="6">
         <v>20220513</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="M31" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4" t="s">
+      <c r="N31" s="2"/>
+      <c r="O31" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="9" t="s">
+      <c r="P31" s="2"/>
+      <c r="Q31" s="7" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="32" spans="12:17" x14ac:dyDescent="0.45">
-      <c r="L32" s="8">
+      <c r="L32" s="6">
         <v>20220514</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="M32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4" t="s">
+      <c r="N32" s="2"/>
+      <c r="O32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="9" t="s">
+      <c r="P32" s="2"/>
+      <c r="Q32" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="33" spans="12:17" x14ac:dyDescent="0.45">
-      <c r="L33" s="8">
+      <c r="L33" s="6">
         <v>20220515</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="M33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4" t="s">
+      <c r="N33" s="2"/>
+      <c r="O33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="9" t="s">
+      <c r="P33" s="2"/>
+      <c r="Q33" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="12:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="L34" s="10">
+      <c r="L34" s="8">
         <v>20220516</v>
       </c>
-      <c r="M34" s="11" t="s">
+      <c r="M34" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11" t="s">
+      <c r="N34" s="9"/>
+      <c r="O34" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="12" t="s">
+      <c r="P34" s="9"/>
+      <c r="Q34" s="10" t="s">
         <v>349</v>
       </c>
     </row>
@@ -5957,7 +6048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CABDD3-C354-4652-9FD4-13A09D19FEC7}">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
@@ -5970,1782 +6061,1782 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="L3" s="5">
-        <v>1</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="N3" s="6" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="11">
         <v>44674.59375</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="L4" s="8">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="L4" s="6">
         <v>2</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N4" s="4" t="s">
+      <c r="M4" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="12">
         <v>44674.594444444447</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="L5" s="8">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="L5" s="6">
         <v>3</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N5" s="4" t="s">
+      <c r="M5" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="12">
         <v>44674.595138888886</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="L6" s="8">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="L6" s="6">
         <v>4</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N6" s="4" t="s">
+      <c r="M6" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="12">
         <v>44674.595833333333</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="L7" s="8">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="L7" s="6">
         <v>5</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N7" s="4" t="s">
+      <c r="M7" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="12">
         <v>44674.59652777778</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="L8" s="8">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="L8" s="6">
         <v>6</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N8" s="4" t="s">
+      <c r="M8" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="12">
         <v>44674.597222222219</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="L9" s="8">
+      <c r="L9" s="6">
         <v>7</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N9" s="4" t="s">
+      <c r="M9" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="12">
         <v>44674.597916666666</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="L10" s="8">
+      <c r="L10" s="6">
         <v>8</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N10" s="4" t="s">
+      <c r="M10" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="12">
         <v>44674.598611111112</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="L11" s="8">
+      <c r="L11" s="6">
         <v>9</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N11" s="4" t="s">
+      <c r="M11" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="12">
         <v>44674.599305555559</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="L12" s="8">
+      <c r="L12" s="6">
         <v>10</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N12" s="4" t="s">
+      <c r="M12" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="12">
         <v>44674.6</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="L13" s="8">
+      <c r="L13" s="6">
         <v>11</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N13" s="4" t="s">
+      <c r="M13" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="12">
         <v>44674.600694444445</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="L14" s="8">
+      <c r="L14" s="6">
         <v>12</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N14" s="4" t="s">
+      <c r="M14" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="12">
         <v>44674.601388888892</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="L15" s="8">
+      <c r="L15" s="6">
         <v>13</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N15" s="4" t="s">
+      <c r="M15" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="12">
         <v>44674.602083333331</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="L16" s="8">
+      <c r="L16" s="6">
         <v>14</v>
       </c>
-      <c r="M16" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N16" s="4" t="s">
+      <c r="M16" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="O16" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P16" s="14">
+      <c r="P16" s="12">
         <v>44674.602777777778</v>
       </c>
     </row>
     <row r="17" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L17" s="8">
+      <c r="L17" s="6">
         <v>15</v>
       </c>
-      <c r="M17" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N17" s="4" t="s">
+      <c r="M17" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="O17" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P17" s="12">
         <v>44674.603472222225</v>
       </c>
     </row>
     <row r="18" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L18" s="8">
+      <c r="L18" s="6">
         <v>16</v>
       </c>
-      <c r="M18" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N18" s="4" t="s">
+      <c r="M18" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P18" s="14">
+      <c r="P18" s="12">
         <v>44674.604166666664</v>
       </c>
     </row>
     <row r="19" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L19" s="8">
+      <c r="L19" s="6">
         <v>17</v>
       </c>
-      <c r="M19" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N19" s="4" t="s">
+      <c r="M19" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="O19" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P19" s="12">
         <v>44675.4375</v>
       </c>
     </row>
     <row r="20" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L20" s="8">
+      <c r="L20" s="6">
         <v>18</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N20" s="4" t="s">
+      <c r="M20" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N20" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="O20" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P20" s="12">
         <v>44676.4375</v>
       </c>
     </row>
     <row r="21" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L21" s="8">
+      <c r="L21" s="6">
         <v>19</v>
       </c>
-      <c r="M21" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N21" s="4" t="s">
+      <c r="M21" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="O21" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P21" s="12">
         <v>44677.4375</v>
       </c>
     </row>
     <row r="22" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L22" s="8">
+      <c r="L22" s="6">
         <v>20</v>
       </c>
-      <c r="M22" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N22" s="4" t="s">
+      <c r="M22" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="O22" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P22" s="12">
         <v>44677.438194444447</v>
       </c>
     </row>
     <row r="23" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L23" s="8">
+      <c r="L23" s="6">
         <v>21</v>
       </c>
-      <c r="M23" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N23" s="4" t="s">
+      <c r="M23" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="O23" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P23" s="12">
         <v>44677.438888888886</v>
       </c>
     </row>
     <row r="24" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L24" s="8">
+      <c r="L24" s="6">
         <v>22</v>
       </c>
-      <c r="M24" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N24" s="4" t="s">
+      <c r="M24" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="O24" s="4" t="s">
+      <c r="O24" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P24" s="12">
         <v>44677.439583333333</v>
       </c>
     </row>
     <row r="25" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L25" s="8">
+      <c r="L25" s="6">
         <v>23</v>
       </c>
-      <c r="M25" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N25" s="4" t="s">
+      <c r="M25" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="O25" s="4" t="s">
+      <c r="O25" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P25" s="12">
         <v>44677.44027777778</v>
       </c>
     </row>
     <row r="26" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L26" s="8">
+      <c r="L26" s="6">
         <v>24</v>
       </c>
-      <c r="M26" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N26" s="4" t="s">
+      <c r="M26" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="O26" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P26" s="14">
+      <c r="P26" s="12">
         <v>44677.440972222219</v>
       </c>
     </row>
     <row r="27" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L27" s="8">
+      <c r="L27" s="6">
         <v>25</v>
       </c>
-      <c r="M27" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N27" s="4" t="s">
+      <c r="M27" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="O27" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="P27" s="14">
+      <c r="P27" s="12">
         <v>44677.441666666666</v>
       </c>
     </row>
     <row r="28" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L28" s="8">
+      <c r="L28" s="6">
         <v>26</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N28" s="4" t="s">
+      <c r="M28" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="O28" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P28" s="12">
         <v>44677.442361111112</v>
       </c>
     </row>
     <row r="29" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L29" s="8">
+      <c r="L29" s="6">
         <v>27</v>
       </c>
-      <c r="M29" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N29" s="4" t="s">
+      <c r="M29" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="O29" s="4" t="s">
+      <c r="O29" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="P29" s="14">
+      <c r="P29" s="12">
         <v>44677.443055555559</v>
       </c>
     </row>
     <row r="30" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L30" s="8">
+      <c r="L30" s="6">
         <v>28</v>
       </c>
-      <c r="M30" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N30" s="4" t="s">
+      <c r="M30" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="O30" s="4" t="s">
+      <c r="O30" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P30" s="14">
+      <c r="P30" s="12">
         <v>44677.443749999999</v>
       </c>
     </row>
     <row r="31" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L31" s="8">
+      <c r="L31" s="6">
         <v>29</v>
       </c>
-      <c r="M31" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N31" s="4" t="s">
+      <c r="M31" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N31" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="O31" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="P31" s="14">
+      <c r="P31" s="12">
         <v>44677.444444444445</v>
       </c>
     </row>
     <row r="32" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L32" s="8">
+      <c r="L32" s="6">
         <v>30</v>
       </c>
-      <c r="M32" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N32" s="4" t="s">
+      <c r="M32" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N32" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="O32" s="4" t="s">
+      <c r="O32" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P32" s="14">
+      <c r="P32" s="12">
         <v>44677.445138888892</v>
       </c>
     </row>
     <row r="33" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L33" s="8">
+      <c r="L33" s="6">
         <v>31</v>
       </c>
-      <c r="M33" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N33" s="4" t="s">
+      <c r="M33" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="O33" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P33" s="12">
         <v>44678.445138888892</v>
       </c>
     </row>
     <row r="34" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L34" s="8">
+      <c r="L34" s="6">
         <v>32</v>
       </c>
-      <c r="M34" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N34" s="4" t="s">
+      <c r="M34" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O34" s="4" t="s">
+      <c r="O34" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P34" s="14">
+      <c r="P34" s="12">
         <v>44679.445833333331</v>
       </c>
     </row>
     <row r="35" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L35" s="8">
+      <c r="L35" s="6">
         <v>33</v>
       </c>
-      <c r="M35" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N35" s="4" t="s">
+      <c r="M35" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N35" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="O35" s="4" t="s">
+      <c r="O35" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P35" s="14">
+      <c r="P35" s="12">
         <v>44680.446527662039</v>
       </c>
     </row>
     <row r="36" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L36" s="8">
+      <c r="L36" s="6">
         <v>34</v>
       </c>
-      <c r="M36" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N36" s="4" t="s">
+      <c r="M36" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O36" s="4" t="s">
+      <c r="O36" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P36" s="14">
+      <c r="P36" s="12">
         <v>44681.447222048613</v>
       </c>
     </row>
     <row r="37" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L37" s="8">
+      <c r="L37" s="6">
         <v>35</v>
       </c>
-      <c r="M37" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N37" s="4" t="s">
+      <c r="M37" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O37" s="4" t="s">
+      <c r="O37" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P37" s="14">
+      <c r="P37" s="12">
         <v>44682.447916435187</v>
       </c>
     </row>
     <row r="38" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L38" s="8">
+      <c r="L38" s="6">
         <v>36</v>
       </c>
-      <c r="M38" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N38" s="4" t="s">
+      <c r="M38" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N38" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="O38" s="4" t="s">
+      <c r="O38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P38" s="14">
+      <c r="P38" s="12">
         <v>44683.448610821761</v>
       </c>
     </row>
     <row r="39" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L39" s="8">
+      <c r="L39" s="6">
         <v>37</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N39" s="4" t="s">
+      <c r="M39" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O39" s="4" t="s">
+      <c r="O39" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P39" s="14">
+      <c r="P39" s="12">
         <v>44684.449305208334</v>
       </c>
     </row>
     <row r="40" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L40" s="8">
+      <c r="L40" s="6">
         <v>38</v>
       </c>
-      <c r="M40" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N40" s="4" t="s">
+      <c r="M40" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O40" s="4" t="s">
+      <c r="O40" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P40" s="14">
+      <c r="P40" s="12">
         <v>44685.449999594908</v>
       </c>
     </row>
     <row r="41" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L41" s="8">
+      <c r="L41" s="6">
         <v>39</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N41" s="4" t="s">
+      <c r="M41" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N41" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="O41" s="4" t="s">
+      <c r="O41" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P41" s="14">
+      <c r="P41" s="12">
         <v>44686.450693981482</v>
       </c>
     </row>
     <row r="42" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L42" s="8">
+      <c r="L42" s="6">
         <v>40</v>
       </c>
-      <c r="M42" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N42" s="4" t="s">
+      <c r="M42" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O42" s="4" t="s">
+      <c r="O42" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P42" s="14">
+      <c r="P42" s="12">
         <v>44687.451388368056</v>
       </c>
     </row>
     <row r="43" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L43" s="8">
+      <c r="L43" s="6">
         <v>41</v>
       </c>
-      <c r="M43" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N43" s="4" t="s">
+      <c r="M43" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O43" s="4" t="s">
+      <c r="O43" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P43" s="14">
+      <c r="P43" s="12">
         <v>44688.452082754629</v>
       </c>
     </row>
     <row r="44" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L44" s="8">
+      <c r="L44" s="6">
         <v>42</v>
       </c>
-      <c r="M44" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N44" s="4" t="s">
+      <c r="M44" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N44" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="O44" s="4" t="s">
+      <c r="O44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P44" s="14">
+      <c r="P44" s="12">
         <v>44688.452777777777</v>
       </c>
     </row>
     <row r="45" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L45" s="8">
-        <v>43</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N45" s="4" t="s">
+      <c r="L45" s="6">
+        <v>43</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N45" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="O45" s="4" t="s">
+      <c r="O45" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P45" s="14">
+      <c r="P45" s="12">
         <v>44688.453472743058</v>
       </c>
     </row>
     <row r="46" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L46" s="8">
+      <c r="L46" s="6">
         <v>44</v>
       </c>
-      <c r="M46" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N46" s="4" t="s">
+      <c r="M46" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N46" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="O46" s="4" t="s">
+      <c r="O46" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="P46" s="14">
+      <c r="P46" s="12">
         <v>44688.454167766206</v>
       </c>
     </row>
     <row r="47" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L47" s="8">
+      <c r="L47" s="6">
         <v>45</v>
       </c>
-      <c r="M47" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N47" s="4" t="s">
+      <c r="M47" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N47" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="O47" s="4" t="s">
+      <c r="O47" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P47" s="14">
+      <c r="P47" s="12">
         <v>44688.454862789353</v>
       </c>
     </row>
     <row r="48" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L48" s="8">
+      <c r="L48" s="6">
         <v>46</v>
       </c>
-      <c r="M48" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N48" s="4" t="s">
+      <c r="M48" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N48" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="O48" s="4" t="s">
+      <c r="O48" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="P48" s="14">
+      <c r="P48" s="12">
         <v>44688.4555578125</v>
       </c>
     </row>
     <row r="49" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L49" s="8">
+      <c r="L49" s="6">
         <v>47</v>
       </c>
-      <c r="M49" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N49" s="4" t="s">
+      <c r="M49" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N49" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="O49" s="4" t="s">
+      <c r="O49" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P49" s="14">
+      <c r="P49" s="12">
         <v>44688.456252835647</v>
       </c>
     </row>
     <row r="50" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L50" s="8">
+      <c r="L50" s="6">
         <v>48</v>
       </c>
-      <c r="M50" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N50" s="4" t="s">
+      <c r="M50" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N50" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="O50" s="4" t="s">
+      <c r="O50" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="P50" s="14">
+      <c r="P50" s="12">
         <v>44688.456947858795</v>
       </c>
     </row>
     <row r="51" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L51" s="8">
+      <c r="L51" s="6">
         <v>49</v>
       </c>
-      <c r="M51" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N51" s="4" t="s">
+      <c r="M51" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N51" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="O51" s="4" t="s">
+      <c r="O51" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P51" s="14">
+      <c r="P51" s="12">
         <v>44688.457642881942</v>
       </c>
     </row>
     <row r="52" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L52" s="8">
+      <c r="L52" s="6">
         <v>50</v>
       </c>
-      <c r="M52" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N52" s="4" t="s">
+      <c r="M52" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N52" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="O52" s="4" t="s">
+      <c r="O52" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="P52" s="14">
+      <c r="P52" s="12">
         <v>44688.458337905089</v>
       </c>
     </row>
     <row r="53" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L53" s="8">
+      <c r="L53" s="6">
         <v>51</v>
       </c>
-      <c r="M53" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N53" s="4" t="s">
+      <c r="M53" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N53" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="O53" s="4" t="s">
+      <c r="O53" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P53" s="14">
+      <c r="P53" s="12">
         <v>44688.459032928244</v>
       </c>
     </row>
     <row r="54" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L54" s="8">
+      <c r="L54" s="6">
         <v>52</v>
       </c>
-      <c r="M54" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N54" s="4" t="s">
+      <c r="M54" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N54" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="O54" s="4" t="s">
+      <c r="O54" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="P54" s="14">
+      <c r="P54" s="12">
         <v>44688.459727951391</v>
       </c>
     </row>
     <row r="55" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L55" s="8">
+      <c r="L55" s="6">
         <v>53</v>
       </c>
-      <c r="M55" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N55" s="4" t="s">
+      <c r="M55" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N55" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="O55" s="4" t="s">
+      <c r="O55" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P55" s="14">
+      <c r="P55" s="12">
         <v>44688.460422974538</v>
       </c>
     </row>
     <row r="56" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L56" s="8">
+      <c r="L56" s="6">
         <v>54</v>
       </c>
-      <c r="M56" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N56" s="4" t="s">
+      <c r="M56" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N56" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="O56" s="4" t="s">
+      <c r="O56" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="P56" s="14">
+      <c r="P56" s="12">
         <v>44688.461117997686</v>
       </c>
     </row>
     <row r="57" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L57" s="8">
+      <c r="L57" s="6">
         <v>55</v>
       </c>
-      <c r="M57" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N57" s="4" t="s">
+      <c r="M57" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N57" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="O57" s="4" t="s">
+      <c r="O57" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P57" s="14">
+      <c r="P57" s="12">
         <v>44688.461813020833</v>
       </c>
     </row>
     <row r="58" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L58" s="8">
+      <c r="L58" s="6">
         <v>56</v>
       </c>
-      <c r="M58" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N58" s="4" t="s">
+      <c r="M58" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N58" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O58" s="4" t="s">
+      <c r="O58" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="P58" s="14">
+      <c r="P58" s="12">
         <v>44688.46250804398</v>
       </c>
     </row>
     <row r="59" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L59" s="8">
+      <c r="L59" s="6">
         <v>57</v>
       </c>
-      <c r="M59" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N59" s="4" t="s">
+      <c r="M59" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N59" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="O59" s="4" t="s">
+      <c r="O59" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P59" s="14">
+      <c r="P59" s="12">
         <v>44688.463203067127</v>
       </c>
     </row>
     <row r="60" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L60" s="8">
+      <c r="L60" s="6">
         <v>58</v>
       </c>
-      <c r="M60" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N60" s="4" t="s">
+      <c r="M60" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N60" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O60" s="4" t="s">
+      <c r="O60" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="P60" s="14">
+      <c r="P60" s="12">
         <v>44688.463898090275</v>
       </c>
     </row>
     <row r="61" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L61" s="8">
+      <c r="L61" s="6">
         <v>59</v>
       </c>
-      <c r="M61" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N61" s="4" t="s">
+      <c r="M61" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N61" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="O61" s="4" t="s">
+      <c r="O61" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P61" s="14">
+      <c r="P61" s="12">
         <v>44688.464593113429</v>
       </c>
     </row>
     <row r="62" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L62" s="8">
+      <c r="L62" s="6">
         <v>60</v>
       </c>
-      <c r="M62" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N62" s="4" t="s">
+      <c r="M62" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N62" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O62" s="4" t="s">
+      <c r="O62" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="P62" s="14">
+      <c r="P62" s="12">
         <v>44688.465288136576</v>
       </c>
     </row>
     <row r="63" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L63" s="8">
+      <c r="L63" s="6">
         <v>61</v>
       </c>
-      <c r="M63" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N63" s="4" t="s">
+      <c r="M63" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N63" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="O63" s="4" t="s">
+      <c r="O63" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P63" s="14">
+      <c r="P63" s="12">
         <v>44688.465983159724</v>
       </c>
     </row>
     <row r="64" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L64" s="8">
+      <c r="L64" s="6">
         <v>62</v>
       </c>
-      <c r="M64" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N64" s="4" t="s">
+      <c r="M64" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N64" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O64" s="4" t="s">
+      <c r="O64" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="P64" s="14">
+      <c r="P64" s="12">
         <v>44688.466678182871</v>
       </c>
     </row>
     <row r="65" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L65" s="8">
+      <c r="L65" s="6">
         <v>63</v>
       </c>
-      <c r="M65" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N65" s="4" t="s">
+      <c r="M65" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N65" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="O65" s="4" t="s">
+      <c r="O65" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P65" s="14">
+      <c r="P65" s="12">
         <v>44688.467373206018</v>
       </c>
     </row>
     <row r="66" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L66" s="8">
+      <c r="L66" s="6">
         <v>64</v>
       </c>
-      <c r="M66" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N66" s="4" t="s">
+      <c r="M66" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N66" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O66" s="4" t="s">
+      <c r="O66" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="P66" s="14">
+      <c r="P66" s="12">
         <v>44688.468068229166</v>
       </c>
     </row>
     <row r="67" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L67" s="8">
+      <c r="L67" s="6">
         <v>65</v>
       </c>
-      <c r="M67" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N67" s="4" t="s">
+      <c r="M67" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N67" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O67" s="4" t="s">
+      <c r="O67" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="P67" s="14">
+      <c r="P67" s="12">
         <v>44688.468763252313</v>
       </c>
     </row>
     <row r="68" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L68" s="8">
+      <c r="L68" s="6">
         <v>66</v>
       </c>
-      <c r="M68" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N68" s="4" t="s">
+      <c r="M68" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N68" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="O68" s="4" t="s">
+      <c r="O68" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P68" s="14">
+      <c r="P68" s="12">
         <v>44674.59375</v>
       </c>
     </row>
     <row r="69" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L69" s="8">
+      <c r="L69" s="6">
         <v>67</v>
       </c>
-      <c r="M69" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N69" s="4" t="s">
+      <c r="M69" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N69" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O69" s="4" t="s">
+      <c r="O69" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="P69" s="14">
+      <c r="P69" s="12">
         <v>44674.594444444447</v>
       </c>
     </row>
     <row r="70" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L70" s="8">
+      <c r="L70" s="6">
         <v>68</v>
       </c>
-      <c r="M70" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N70" s="4" t="s">
+      <c r="M70" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N70" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="O70" s="4" t="s">
+      <c r="O70" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P70" s="14">
+      <c r="P70" s="12">
         <v>44674.595138888886</v>
       </c>
     </row>
     <row r="71" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L71" s="8">
+      <c r="L71" s="6">
         <v>69</v>
       </c>
-      <c r="M71" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N71" s="4" t="s">
+      <c r="M71" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N71" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O71" s="4" t="s">
+      <c r="O71" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="P71" s="14">
+      <c r="P71" s="12">
         <v>44674.595833333333</v>
       </c>
     </row>
     <row r="72" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L72" s="8">
+      <c r="L72" s="6">
         <v>70</v>
       </c>
-      <c r="M72" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N72" s="4" t="s">
+      <c r="M72" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N72" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="O72" s="4" t="s">
+      <c r="O72" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P72" s="14">
+      <c r="P72" s="12">
         <v>44674.59652777778</v>
       </c>
     </row>
     <row r="73" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L73" s="8">
+      <c r="L73" s="6">
         <v>71</v>
       </c>
-      <c r="M73" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N73" s="4" t="s">
+      <c r="M73" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N73" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O73" s="4" t="s">
+      <c r="O73" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="P73" s="14">
+      <c r="P73" s="12">
         <v>44674.597222222219</v>
       </c>
     </row>
     <row r="74" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L74" s="8">
+      <c r="L74" s="6">
         <v>72</v>
       </c>
-      <c r="M74" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N74" s="4" t="s">
+      <c r="M74" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N74" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="O74" s="4" t="s">
+      <c r="O74" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P74" s="14">
+      <c r="P74" s="12">
         <v>44674.597916666666</v>
       </c>
     </row>
     <row r="75" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L75" s="8">
+      <c r="L75" s="6">
         <v>73</v>
       </c>
-      <c r="M75" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N75" s="4" t="s">
+      <c r="M75" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N75" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O75" s="4" t="s">
+      <c r="O75" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="P75" s="14">
+      <c r="P75" s="12">
         <v>44674.598611111112</v>
       </c>
     </row>
     <row r="76" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L76" s="8">
+      <c r="L76" s="6">
         <v>74</v>
       </c>
-      <c r="M76" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N76" s="4" t="s">
+      <c r="M76" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N76" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="O76" s="4" t="s">
+      <c r="O76" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P76" s="14">
+      <c r="P76" s="12">
         <v>44674.599305555559</v>
       </c>
     </row>
     <row r="77" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L77" s="8">
+      <c r="L77" s="6">
         <v>75</v>
       </c>
-      <c r="M77" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N77" s="4" t="s">
+      <c r="M77" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N77" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O77" s="4" t="s">
+      <c r="O77" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="P77" s="14">
+      <c r="P77" s="12">
         <v>44674.6</v>
       </c>
     </row>
     <row r="78" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L78" s="8">
+      <c r="L78" s="6">
         <v>76</v>
       </c>
-      <c r="M78" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N78" s="4" t="s">
+      <c r="M78" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N78" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="O78" s="4" t="s">
+      <c r="O78" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P78" s="14">
+      <c r="P78" s="12">
         <v>44674.600694444445</v>
       </c>
     </row>
     <row r="79" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L79" s="8">
+      <c r="L79" s="6">
         <v>77</v>
       </c>
-      <c r="M79" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N79" s="4" t="s">
+      <c r="M79" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N79" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O79" s="4" t="s">
+      <c r="O79" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="P79" s="14">
+      <c r="P79" s="12">
         <v>44674.601388888892</v>
       </c>
     </row>
     <row r="80" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L80" s="8">
+      <c r="L80" s="6">
         <v>78</v>
       </c>
-      <c r="M80" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N80" s="4" t="s">
+      <c r="M80" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N80" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="O80" s="4" t="s">
+      <c r="O80" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P80" s="14">
+      <c r="P80" s="12">
         <v>44674.602083333331</v>
       </c>
     </row>
     <row r="81" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L81" s="8">
+      <c r="L81" s="6">
         <v>79</v>
       </c>
-      <c r="M81" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N81" s="4" t="s">
+      <c r="M81" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N81" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O81" s="4" t="s">
+      <c r="O81" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="P81" s="14">
+      <c r="P81" s="12">
         <v>44674.602777777778</v>
       </c>
     </row>
     <row r="82" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L82" s="8">
+      <c r="L82" s="6">
         <v>80</v>
       </c>
-      <c r="M82" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N82" s="4" t="s">
+      <c r="M82" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N82" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="O82" s="4" t="s">
+      <c r="O82" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P82" s="14">
+      <c r="P82" s="12">
         <v>44674.603472222225</v>
       </c>
     </row>
     <row r="83" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L83" s="8">
+      <c r="L83" s="6">
         <v>81</v>
       </c>
-      <c r="M83" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N83" s="4" t="s">
+      <c r="M83" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N83" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O83" s="4" t="s">
+      <c r="O83" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="P83" s="14">
+      <c r="P83" s="12">
         <v>44674.604166666664</v>
       </c>
     </row>
     <row r="84" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L84" s="8">
+      <c r="L84" s="6">
         <v>82</v>
       </c>
-      <c r="M84" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N84" s="4" t="s">
+      <c r="M84" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N84" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="O84" s="4" t="s">
+      <c r="O84" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P84" s="14">
+      <c r="P84" s="12">
         <v>44675.4375</v>
       </c>
     </row>
     <row r="85" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L85" s="8">
+      <c r="L85" s="6">
         <v>83</v>
       </c>
-      <c r="M85" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N85" s="4" t="s">
+      <c r="M85" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N85" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O85" s="4" t="s">
+      <c r="O85" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="P85" s="14">
+      <c r="P85" s="12">
         <v>44676.4375</v>
       </c>
     </row>
     <row r="86" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L86" s="8">
+      <c r="L86" s="6">
         <v>84</v>
       </c>
-      <c r="M86" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N86" s="4" t="s">
+      <c r="M86" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N86" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="O86" s="4" t="s">
+      <c r="O86" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P86" s="14">
+      <c r="P86" s="12">
         <v>44677.4375</v>
       </c>
     </row>
     <row r="87" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L87" s="8">
+      <c r="L87" s="6">
         <v>85</v>
       </c>
-      <c r="M87" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N87" s="4" t="s">
+      <c r="M87" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N87" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O87" s="4" t="s">
+      <c r="O87" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="P87" s="14">
+      <c r="P87" s="12">
         <v>44677.438194444447</v>
       </c>
     </row>
     <row r="88" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L88" s="8">
+      <c r="L88" s="6">
         <v>86</v>
       </c>
-      <c r="M88" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N88" s="4" t="s">
+      <c r="M88" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N88" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="O88" s="4" t="s">
+      <c r="O88" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="P88" s="14">
+      <c r="P88" s="12">
         <v>44677.438888888886</v>
       </c>
     </row>
     <row r="89" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L89" s="8">
+      <c r="L89" s="6">
         <v>87</v>
       </c>
-      <c r="M89" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N89" s="4" t="s">
+      <c r="M89" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N89" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="O89" s="4" t="s">
+      <c r="O89" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="P89" s="14">
+      <c r="P89" s="12">
         <v>44677.439583333333</v>
       </c>
     </row>
     <row r="90" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L90" s="8">
+      <c r="L90" s="6">
         <v>88</v>
       </c>
-      <c r="M90" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N90" s="4" t="s">
+      <c r="M90" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N90" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="O90" s="4" t="s">
+      <c r="O90" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="P90" s="14">
+      <c r="P90" s="12">
         <v>44674.59375</v>
       </c>
     </row>
     <row r="91" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L91" s="8">
+      <c r="L91" s="6">
         <v>89</v>
       </c>
-      <c r="M91" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N91" s="4" t="s">
+      <c r="M91" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N91" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="O91" s="4" t="s">
+      <c r="O91" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="P91" s="14">
+      <c r="P91" s="12">
         <v>44674.594444444447</v>
       </c>
     </row>
     <row r="92" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L92" s="8">
+      <c r="L92" s="6">
         <v>90</v>
       </c>
-      <c r="M92" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N92" s="4" t="s">
+      <c r="M92" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N92" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="O92" s="4" t="s">
+      <c r="O92" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="P92" s="14">
+      <c r="P92" s="12">
         <v>44674.595138888886</v>
       </c>
     </row>
     <row r="93" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L93" s="8">
+      <c r="L93" s="6">
         <v>91</v>
       </c>
-      <c r="M93" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N93" s="4" t="s">
+      <c r="M93" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N93" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="O93" s="4" t="s">
+      <c r="O93" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="P93" s="14">
+      <c r="P93" s="12">
         <v>44674.595833333333</v>
       </c>
     </row>
     <row r="94" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L94" s="8">
+      <c r="L94" s="6">
         <v>92</v>
       </c>
-      <c r="M94" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N94" s="4" t="s">
+      <c r="M94" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N94" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="O94" s="4" t="s">
+      <c r="O94" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="P94" s="14">
+      <c r="P94" s="12">
         <v>44674.59652777778</v>
       </c>
     </row>
     <row r="95" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L95" s="8">
+      <c r="L95" s="6">
         <v>93</v>
       </c>
-      <c r="M95" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N95" s="4" t="s">
+      <c r="M95" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N95" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="O95" s="4" t="s">
+      <c r="O95" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="P95" s="14">
+      <c r="P95" s="12">
         <v>44674.597222222219</v>
       </c>
     </row>
     <row r="96" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L96" s="8">
+      <c r="L96" s="6">
         <v>94</v>
       </c>
-      <c r="M96" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N96" s="4" t="s">
+      <c r="M96" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N96" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="O96" s="4" t="s">
+      <c r="O96" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="P96" s="14">
+      <c r="P96" s="12">
         <v>44674.597916666666</v>
       </c>
     </row>
     <row r="97" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L97" s="8">
+      <c r="L97" s="6">
         <v>95</v>
       </c>
-      <c r="M97" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N97" s="4" t="s">
+      <c r="M97" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N97" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="O97" s="4" t="s">
+      <c r="O97" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="P97" s="14">
+      <c r="P97" s="12">
         <v>44674.598611111112</v>
       </c>
     </row>
     <row r="98" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L98" s="8">
+      <c r="L98" s="6">
         <v>96</v>
       </c>
-      <c r="M98" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N98" s="4" t="s">
+      <c r="M98" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N98" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="O98" s="4" t="s">
+      <c r="O98" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="P98" s="14">
+      <c r="P98" s="12">
         <v>44674.599305555559</v>
       </c>
     </row>
     <row r="99" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L99" s="8">
+      <c r="L99" s="6">
         <v>97</v>
       </c>
-      <c r="M99" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N99" s="4" t="s">
+      <c r="M99" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N99" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="O99" s="4" t="s">
+      <c r="O99" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="P99" s="14">
+      <c r="P99" s="12">
         <v>44674.6</v>
       </c>
     </row>
     <row r="100" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L100" s="8">
+      <c r="L100" s="6">
         <v>98</v>
       </c>
-      <c r="M100" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N100" s="4" t="s">
+      <c r="M100" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N100" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="O100" s="4" t="s">
+      <c r="O100" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="P100" s="14">
+      <c r="P100" s="12">
         <v>44674.600694444445</v>
       </c>
     </row>
     <row r="101" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L101" s="8">
+      <c r="L101" s="6">
         <v>99</v>
       </c>
-      <c r="M101" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N101" s="4" t="s">
+      <c r="M101" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N101" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="O101" s="4" t="s">
+      <c r="O101" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="P101" s="14">
+      <c r="P101" s="12">
         <v>44674.601388888892</v>
       </c>
     </row>
     <row r="102" spans="12:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="L102" s="10">
+      <c r="L102" s="8">
         <v>100</v>
       </c>
-      <c r="M102" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="N102" s="11" t="s">
+      <c r="M102" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="N102" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="O102" s="11" t="s">
+      <c r="O102" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="P102" s="15">
+      <c r="P102" s="13">
         <v>44674.602083333331</v>
       </c>
     </row>
